--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -6,18 +6,22 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="de-de" sheetId="2" r:id="rId3"/>
+    <sheet name="zh-cn" sheetId="2" r:id="rId3"/>
+    <sheet name="de-de" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>File Name</t>
   </si>
   <si>
+    <t>zh-cn</t>
+  </si>
+  <si>
     <t>de-de</t>
   </si>
   <si>
@@ -60,19 +64,25 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>test-content-1.fc92bd3ea58825d16dce72b4174897baa7b370e7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 03:55:38</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>Ignored</t>
+  </si>
+  <si>
     <t>test-content-1.fc92bd3ea58825d16dce72b4174897baa7b370e7.de-de.xlf</t>
   </si>
   <si>
     <t>2016-01-27 03:55:11</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>Ignored</t>
   </si>
 </sst>
 </file>
@@ -129,7 +139,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:J1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:J1" headerRowCount="0">
   <tableColumns count="10">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="Status"/>
@@ -147,18 +157,37 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:B1" headerRowCount="0">
-  <tableColumns count="2">
-    <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="de-de"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:J1" headerRowCount="0">
+  <tableColumns count="10">
+    <tableColumn id="1" name="Source File Name"/>
+    <tableColumn id="2" name="Status"/>
+    <tableColumn id="3" name="Latest Handoff File"/>
+    <tableColumn id="4" name="Latest Handoff Datetime"/>
+    <tableColumn id="5" name="Latest Target File"/>
+    <tableColumn id="6" name="Latest Handback File"/>
+    <tableColumn id="7" name="Latest Handback DateTime"/>
+    <tableColumn id="8" name="Handoff Reason"/>
+    <tableColumn id="9" name="Dependency From"/>
+    <tableColumn id="10" name="Column10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
+  <tableColumns count="3">
+    <tableColumn id="1" name="File Name"/>
+    <tableColumn id="2" name="zh-cn"/>
+    <tableColumn id="3" name="de-de"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -166,6 +195,7 @@
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -175,21 +205,30 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -225,68 +264,166 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="test-content-1.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="test-content-1.fc92bd3ea58825d16dce72b4174897baa7b370e7.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+  </hyperlinks>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -28,7 +28,7 @@
     <t>45ab46b1-a3da-4c64-900c-01a6626a3403.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>63a1022c-59de-4b90-b881-954774ddba59.md</t>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>File Name</t>
   </si>
@@ -34,6 +34,15 @@
     <t>63a1022c-59de-4b90-b881-954774ddba59.md</t>
   </si>
   <si>
+    <t>23d785a5-46aa-4652-9eb4-47fb758425bd.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md</t>
+  </si>
+  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -82,6 +91,15 @@
     <t>63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.zh-cn.xlf</t>
   </si>
   <si>
+    <t>23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:33:09</t>
+  </si>
+  <si>
+    <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -92,6 +110,15 @@
   </si>
   <si>
     <t>63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.de-de.xlf</t>
+  </si>
+  <si>
+    <t>23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:33:19</t>
+  </si>
+  <si>
+    <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -196,7 +223,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -251,11 +278,35 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId2"/>
     <hyperlink ref="A3" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId3"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A4" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId5"/>
+    <hyperlink ref="A6" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -266,7 +317,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -285,31 +336,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -320,16 +371,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -340,16 +391,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -359,14 +410,54 @@
       <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -375,7 +466,11 @@
     <hyperlink ref="C2" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="A3" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId4"/>
     <hyperlink ref="C3" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="A4" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId8"/>
+    <hyperlink ref="C5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -386,7 +481,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,31 +500,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -440,16 +535,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -460,16 +555,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -479,14 +574,54 @@
       <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -495,7 +630,11 @@
     <hyperlink ref="C2" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="A3" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId4"/>
     <hyperlink ref="C3" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="A4" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId8"/>
+    <hyperlink ref="C5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>File Name</t>
   </si>
@@ -94,12 +94,15 @@
     <t>23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-27 07:33:53</t>
+  </si>
+  <si>
+    <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-01-27 07:33:09</t>
   </si>
   <si>
-    <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -115,10 +118,13 @@
     <t>23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-01-27 07:34:06</t>
+  </si>
+  <si>
+    <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-01-27 07:33:19</t>
-  </si>
-  <si>
-    <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -434,7 +440,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>22</v>
@@ -457,7 +463,7 @@
         <v>22</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -535,10 +541,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>22</v>
@@ -555,10 +561,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>22</v>
@@ -575,10 +581,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>22</v>
@@ -595,10 +601,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>22</v>
@@ -621,7 +627,7 @@
         <v>22</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -34,15 +34,15 @@
     <t>63a1022c-59de-4b90-b881-954774ddba59.md</t>
   </si>
   <si>
+    <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md</t>
+  </si>
+  <si>
     <t>23d785a5-46aa-4652-9eb4-47fb758425bd.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -91,18 +91,18 @@
     <t>63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.zh-cn.xlf</t>
   </si>
   <si>
+    <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:33:09</t>
+  </si>
+  <si>
     <t>23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-01-27 07:33:53</t>
   </si>
   <si>
-    <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:33:09</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -115,16 +115,16 @@
     <t>63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.de-de.xlf</t>
   </si>
   <si>
+    <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:33:19</t>
+  </si>
+  <si>
     <t>23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf</t>
   </si>
   <si>
     <t>2016-01-27 07:34:06</t>
-  </si>
-  <si>
-    <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:33:19</t>
   </si>
 </sst>
 </file>
@@ -278,21 +278,21 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -310,8 +310,8 @@
   <hyperlinks>
     <hyperlink ref="A2" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId2"/>
     <hyperlink ref="A3" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId5"/>
     <hyperlink ref="A6" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
@@ -414,7 +414,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>25</v>
@@ -431,10 +431,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>27</v>
@@ -472,10 +472,10 @@
     <hyperlink ref="C2" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="A3" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId4"/>
     <hyperlink ref="C3" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId8"/>
-    <hyperlink ref="C5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId8"/>
+    <hyperlink ref="C5" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf" r:id="rId9"/>
     <hyperlink ref="A6" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -578,7 +578,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>35</v>
@@ -636,10 +636,10 @@
     <hyperlink ref="C2" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="A3" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId4"/>
     <hyperlink ref="C3" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId8"/>
-    <hyperlink ref="C5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId8"/>
+    <hyperlink ref="C5" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="A6" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -109,7 +109,7 @@
     <t>921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 07:35:24</t>
+    <t>2016-01-27 07:36:02</t>
   </si>
   <si>
     <t>Ignored</t>
@@ -139,7 +139,7 @@
     <t>921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 07:35:36</t>
+    <t>2016-01-27 07:36:13</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>File Name</t>
   </si>
@@ -34,6 +34,9 @@
     <t>63a1022c-59de-4b90-b881-954774ddba59.md</t>
   </si>
   <si>
+    <t>921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md</t>
+  </si>
+  <si>
     <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md</t>
   </si>
   <si>
@@ -43,9 +46,6 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -94,6 +94,15 @@
     <t>63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.zh-cn.xlf</t>
   </si>
   <si>
+    <t>921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:36:02</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:36:42</t>
+  </si>
+  <si>
     <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf</t>
   </si>
   <si>
@@ -106,12 +115,6 @@
     <t>2016-01-27 07:33:53</t>
   </si>
   <si>
-    <t>921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:36:02</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -124,6 +127,15 @@
     <t>63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.de-de.xlf</t>
   </si>
   <si>
+    <t>921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:36:13</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:37:00</t>
+  </si>
+  <si>
     <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf</t>
   </si>
   <si>
@@ -134,12 +146,6 @@
   </si>
   <si>
     <t>2016-01-27 07:34:06</t>
-  </si>
-  <si>
-    <t>921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:36:13</t>
   </si>
 </sst>
 </file>
@@ -304,21 +310,21 @@
         <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -336,9 +342,9 @@
   <hyperlinks>
     <hyperlink ref="A2" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId2"/>
     <hyperlink ref="A3" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId6"/>
+    <hyperlink ref="A4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId6"/>
     <hyperlink ref="A7" display=".localization-config" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
@@ -449,8 +455,14 @@
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G4" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>24</v>
@@ -461,13 +473,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>23</v>
@@ -478,16 +490,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>23</v>
@@ -510,7 +522,7 @@
         <v>23</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -519,13 +531,15 @@
     <hyperlink ref="C2" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="A3" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId4"/>
     <hyperlink ref="C3" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId8"/>
-    <hyperlink ref="C5" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId10"/>
-    <hyperlink ref="C6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display=".localization-config" r:id="rId12"/>
+    <hyperlink ref="A4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId8"/>
+    <hyperlink ref="F4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId10"/>
+    <hyperlink ref="C5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A6" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId12"/>
+    <hyperlink ref="C6" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A7" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -590,10 +604,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>23</v>
@@ -610,10 +624,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>23</v>
@@ -630,13 +644,19 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>24</v>
@@ -647,13 +667,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>23</v>
@@ -664,16 +684,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>23</v>
@@ -696,7 +716,7 @@
         <v>23</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -705,13 +725,15 @@
     <hyperlink ref="C2" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="A3" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId4"/>
     <hyperlink ref="C3" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId8"/>
-    <hyperlink ref="C5" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId10"/>
-    <hyperlink ref="C6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display=".localization-config" r:id="rId12"/>
+    <hyperlink ref="A4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId8"/>
+    <hyperlink ref="F4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId10"/>
+    <hyperlink ref="C5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A6" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId12"/>
+    <hyperlink ref="C6" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A7" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>File Name</t>
   </si>
@@ -40,12 +40,15 @@
     <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md</t>
   </si>
   <si>
+    <t>1b73c28e-9aa5-40eb-b732-d3916272f3f6.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
     <t>23d785a5-46aa-4652-9eb4-47fb758425bd.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -109,6 +112,12 @@
     <t>2016-01-27 07:33:09</t>
   </si>
   <si>
+    <t>1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:38:18</t>
+  </si>
+  <si>
     <t>23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf</t>
   </si>
   <si>
@@ -140,6 +149,12 @@
   </si>
   <si>
     <t>2016-01-27 07:33:19</t>
+  </si>
+  <si>
+    <t>1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:38:29</t>
   </si>
   <si>
     <t>23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf</t>
@@ -250,7 +265,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -332,10 +347,21 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>11</v>
+      <c r="B8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -344,8 +370,9 @@
     <hyperlink ref="A3" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId3"/>
     <hyperlink ref="A4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId4"/>
     <hyperlink ref="A5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId6"/>
-    <hyperlink ref="A7" display=".localization-config" r:id="rId7"/>
+    <hyperlink ref="A6" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId7"/>
+    <hyperlink ref="A8" display=".localization-config" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -356,7 +383,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -375,31 +402,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
@@ -410,16 +437,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -430,16 +457,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -450,22 +477,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -476,16 +503,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -496,16 +523,16 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -513,16 +540,36 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>33</v>
+      <c r="B8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -537,9 +584,11 @@
     <hyperlink ref="F4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId9"/>
     <hyperlink ref="A5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId10"/>
     <hyperlink ref="C5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId12"/>
-    <hyperlink ref="C6" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A7" display=".localization-config" r:id="rId14"/>
+    <hyperlink ref="A6" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId12"/>
+    <hyperlink ref="C6" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A7" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId14"/>
+    <hyperlink ref="C7" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A8" display=".localization-config" r:id="rId16"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -550,7 +599,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -569,31 +618,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
@@ -604,16 +653,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -624,16 +673,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -644,22 +693,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -670,16 +719,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -690,16 +739,16 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -707,16 +756,36 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>33</v>
+      <c r="B8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -731,9 +800,11 @@
     <hyperlink ref="F4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="A5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId10"/>
     <hyperlink ref="C5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId12"/>
-    <hyperlink ref="C6" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A7" display=".localization-config" r:id="rId14"/>
+    <hyperlink ref="A6" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId12"/>
+    <hyperlink ref="C6" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A7" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId14"/>
+    <hyperlink ref="C7" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A8" display=".localization-config" r:id="rId16"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -25,12 +25,15 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>1b73c28e-9aa5-40eb-b732-d3916272f3f6.md</t>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
     <t>45ab46b1-a3da-4c64-900c-01a6626a3403.md</t>
   </si>
   <si>
-    <t>In Translation</t>
-  </si>
-  <si>
     <t>63a1022c-59de-4b90-b881-954774ddba59.md</t>
   </si>
   <si>
@@ -40,15 +43,12 @@
     <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md</t>
   </si>
   <si>
-    <t>1b73c28e-9aa5-40eb-b732-d3916272f3f6.md</t>
+    <t>23d785a5-46aa-4652-9eb4-47fb758425bd.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>23d785a5-46aa-4652-9eb4-47fb758425bd.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -82,18 +82,24 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:38:18</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-01-27 07:31:41</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.zh-cn.xlf</t>
   </si>
   <si>
@@ -112,12 +118,6 @@
     <t>2016-01-27 07:33:09</t>
   </si>
   <si>
-    <t>1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:38:18</t>
-  </si>
-  <si>
     <t>23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf</t>
   </si>
   <si>
@@ -127,6 +127,12 @@
     <t>Ignored</t>
   </si>
   <si>
+    <t>1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:38:29</t>
+  </si>
+  <si>
     <t>45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.de-de.xlf</t>
   </si>
   <si>
@@ -149,12 +155,6 @@
   </si>
   <si>
     <t>2016-01-27 07:33:19</t>
-  </si>
-  <si>
-    <t>1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:38:29</t>
   </si>
   <si>
     <t>23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf</t>
@@ -336,21 +336,21 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -366,11 +366,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId6"/>
     <hyperlink ref="A7" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId7"/>
     <hyperlink ref="A8" display=".localization-config" r:id="rId8"/>
   </hyperlinks>
@@ -460,7 +460,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>24</v>
@@ -477,19 +477,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>25</v>
@@ -503,13 +497,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>25</v>
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -537,10 +537,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>34</v>
@@ -574,18 +574,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId8"/>
-    <hyperlink ref="F4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId10"/>
-    <hyperlink ref="C5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId12"/>
-    <hyperlink ref="C6" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A2" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId4"/>
+    <hyperlink ref="C3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId8"/>
+    <hyperlink ref="C5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="E5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId10"/>
+    <hyperlink ref="F5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId12"/>
+    <hyperlink ref="C6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf" r:id="rId13"/>
     <hyperlink ref="A7" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId14"/>
     <hyperlink ref="C7" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf" r:id="rId15"/>
     <hyperlink ref="A8" display=".localization-config" r:id="rId16"/>
@@ -676,7 +676,7 @@
         <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>24</v>
@@ -693,19 +693,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>25</v>
@@ -719,13 +713,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>25</v>
@@ -736,7 +736,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>45</v>
@@ -753,10 +753,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>47</v>
@@ -790,18 +790,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId8"/>
-    <hyperlink ref="F4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId10"/>
-    <hyperlink ref="C5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId12"/>
-    <hyperlink ref="C6" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A2" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId4"/>
+    <hyperlink ref="C3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId8"/>
+    <hyperlink ref="C5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="E5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId10"/>
+    <hyperlink ref="F5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId12"/>
+    <hyperlink ref="C6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf" r:id="rId13"/>
     <hyperlink ref="A7" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId14"/>
     <hyperlink ref="C7" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf" r:id="rId15"/>
     <hyperlink ref="A8" display=".localization-config" r:id="rId16"/>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -25,30 +25,30 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>45ab46b1-a3da-4c64-900c-01a6626a3403.md</t>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>63a1022c-59de-4b90-b881-954774ddba59.md</t>
+  </si>
+  <si>
+    <t>921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md</t>
+  </si>
+  <si>
+    <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md</t>
+  </si>
+  <si>
     <t>1b73c28e-9aa5-40eb-b732-d3916272f3f6.md</t>
   </si>
   <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>45ab46b1-a3da-4c64-900c-01a6626a3403.md</t>
-  </si>
-  <si>
-    <t>63a1022c-59de-4b90-b881-954774ddba59.md</t>
-  </si>
-  <si>
-    <t>921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md</t>
-  </si>
-  <si>
-    <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md</t>
+    <t>Ready for handoff</t>
   </si>
   <si>
     <t>23d785a5-46aa-4652-9eb4-47fb758425bd.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -82,40 +82,40 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:31:41</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:36:02</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:36:42</t>
+  </si>
+  <si>
+    <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:33:09</t>
+  </si>
+  <si>
     <t>1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 07:38:18</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:31:41</t>
-  </si>
-  <si>
-    <t>63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:36:02</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:36:42</t>
-  </si>
-  <si>
-    <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:33:09</t>
+    <t>2016-01-27 07:39:41</t>
   </si>
   <si>
     <t>23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf</t>
@@ -127,34 +127,34 @@
     <t>Ignored</t>
   </si>
   <si>
+    <t>45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:31:54</t>
+  </si>
+  <si>
+    <t>63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.de-de.xlf</t>
+  </si>
+  <si>
+    <t>921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:36:13</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:37:00</t>
+  </si>
+  <si>
+    <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:33:19</t>
+  </si>
+  <si>
     <t>1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 07:38:29</t>
-  </si>
-  <si>
-    <t>45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:31:54</t>
-  </si>
-  <si>
-    <t>63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.de-de.xlf</t>
-  </si>
-  <si>
-    <t>921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:36:13</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:37:00</t>
-  </si>
-  <si>
-    <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:33:19</t>
+    <t>2016-01-27 07:39:51</t>
   </si>
   <si>
     <t>23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf</t>
@@ -336,21 +336,21 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -366,11 +366,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId6"/>
     <hyperlink ref="A7" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId7"/>
     <hyperlink ref="A8" display=".localization-config" r:id="rId8"/>
   </hyperlinks>
@@ -460,7 +460,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>24</v>
@@ -477,13 +477,19 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>25</v>
@@ -497,19 +503,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>25</v>
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -537,10 +537,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>34</v>
@@ -574,18 +574,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId8"/>
-    <hyperlink ref="C5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="E5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId10"/>
-    <hyperlink ref="F5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId12"/>
-    <hyperlink ref="C6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A2" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId4"/>
+    <hyperlink ref="C3" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId8"/>
+    <hyperlink ref="F4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId10"/>
+    <hyperlink ref="C5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A6" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId12"/>
+    <hyperlink ref="C6" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.zh-cn.xlf" r:id="rId13"/>
     <hyperlink ref="A7" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId14"/>
     <hyperlink ref="C7" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf" r:id="rId15"/>
     <hyperlink ref="A8" display=".localization-config" r:id="rId16"/>
@@ -676,7 +676,7 @@
         <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>24</v>
@@ -693,13 +693,19 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>25</v>
@@ -713,19 +719,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>25</v>
@@ -736,7 +736,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>45</v>
@@ -753,10 +753,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>47</v>
@@ -790,18 +790,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId8"/>
-    <hyperlink ref="C5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="E5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId10"/>
-    <hyperlink ref="F5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId12"/>
-    <hyperlink ref="C6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A2" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId4"/>
+    <hyperlink ref="C3" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId8"/>
+    <hyperlink ref="F4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId10"/>
+    <hyperlink ref="C5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A6" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId12"/>
+    <hyperlink ref="C6" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.de-de.xlf" r:id="rId13"/>
     <hyperlink ref="A7" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId14"/>
     <hyperlink ref="C7" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf" r:id="rId15"/>
     <hyperlink ref="A8" display=".localization-config" r:id="rId16"/>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -115,7 +115,7 @@
     <t>1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 07:39:41</t>
+    <t>2016-01-27 07:40:25</t>
   </si>
   <si>
     <t>23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf</t>
@@ -154,7 +154,7 @@
     <t>1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 07:39:51</t>
+    <t>2016-01-27 07:40:36</t>
   </si>
   <si>
     <t>23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>File Name</t>
   </si>
@@ -49,6 +49,9 @@
     <t>23d785a5-46aa-4652-9eb4-47fb758425bd.md</t>
   </si>
   <si>
+    <t>eec3b823-3712-4a2e-b259-21e54d0d1733.md</t>
+  </si>
+  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -124,6 +127,12 @@
     <t>2016-01-27 07:33:53</t>
   </si>
   <si>
+    <t>eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:41:14</t>
+  </si>
+  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -161,6 +170,12 @@
   </si>
   <si>
     <t>2016-01-27 07:34:06</t>
+  </si>
+  <si>
+    <t>eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:41:26</t>
   </si>
 </sst>
 </file>
@@ -265,7 +280,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -358,10 +373,21 @@
         <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>12</v>
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -372,7 +398,8 @@
     <hyperlink ref="A5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId5"/>
     <hyperlink ref="A6" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId6"/>
     <hyperlink ref="A7" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId7"/>
-    <hyperlink ref="A8" display=".localization-config" r:id="rId8"/>
+    <hyperlink ref="A8" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId8"/>
+    <hyperlink ref="A9" display=".localization-config" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -383,7 +410,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,31 +429,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -437,16 +464,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -457,16 +484,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -477,22 +504,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -503,16 +530,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -523,16 +550,16 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -543,16 +570,16 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -560,16 +587,36 @@
         <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>36</v>
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -588,7 +635,9 @@
     <hyperlink ref="C6" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.zh-cn.xlf" r:id="rId13"/>
     <hyperlink ref="A7" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId14"/>
     <hyperlink ref="C7" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A8" display=".localization-config" r:id="rId16"/>
+    <hyperlink ref="A8" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId16"/>
+    <hyperlink ref="C8" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A9" display=".localization-config" r:id="rId18"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -599,7 +648,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -618,31 +667,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -653,16 +702,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -673,16 +722,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -693,22 +742,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -719,16 +768,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -739,16 +788,16 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -759,16 +808,16 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -776,16 +825,36 @@
         <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>36</v>
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -804,7 +873,9 @@
     <hyperlink ref="C6" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.de-de.xlf" r:id="rId13"/>
     <hyperlink ref="A7" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId14"/>
     <hyperlink ref="C7" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A8" display=".localization-config" r:id="rId16"/>
+    <hyperlink ref="A8" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId16"/>
+    <hyperlink ref="C8" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A9" display=".localization-config" r:id="rId18"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>File Name</t>
   </si>
@@ -25,6 +25,12 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>eec3b823-3712-4a2e-b259-21e54d0d1733.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>45ab46b1-a3da-4c64-900c-01a6626a3403.md</t>
   </si>
   <si>
@@ -49,9 +55,6 @@
     <t>23d785a5-46aa-4652-9eb4-47fb758425bd.md</t>
   </si>
   <si>
-    <t>eec3b823-3712-4a2e-b259-21e54d0d1733.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -85,6 +88,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:41:14</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:42:11</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.zh-cn.xlf</t>
   </si>
   <si>
@@ -94,9 +109,6 @@
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.zh-cn.xlf</t>
   </si>
   <si>
@@ -127,15 +139,18 @@
     <t>2016-01-27 07:33:53</t>
   </si>
   <si>
-    <t>eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:41:14</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:41:26</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:42:30</t>
+  </si>
+  <si>
     <t>45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.de-de.xlf</t>
   </si>
   <si>
@@ -170,12 +185,6 @@
   </si>
   <si>
     <t>2016-01-27 07:34:06</t>
-  </si>
-  <si>
-    <t>eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:41:26</t>
   </si>
 </sst>
 </file>
@@ -318,43 +327,43 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -362,43 +371,43 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C8" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId8"/>
+    <hyperlink ref="A2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId8"/>
     <hyperlink ref="A9" display=".localization-config" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
@@ -429,31 +438,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -464,16 +473,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -481,85 +496,85 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G4" s="0" t="s">
         <v>30</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -567,77 +582,79 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId8"/>
-    <hyperlink ref="F4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId10"/>
-    <hyperlink ref="C5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId12"/>
-    <hyperlink ref="C6" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A7" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId14"/>
-    <hyperlink ref="C7" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A8" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId16"/>
-    <hyperlink ref="C8" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A9" display=".localization-config" r:id="rId18"/>
+    <hyperlink ref="A2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A4" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId8"/>
+    <hyperlink ref="C4" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId10"/>
+    <hyperlink ref="C5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId12"/>
+    <hyperlink ref="F5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId18"/>
+    <hyperlink ref="C8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A9" display=".localization-config" r:id="rId20"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -667,31 +684,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -702,16 +719,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -719,85 +742,85 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -805,77 +828,79 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId8"/>
-    <hyperlink ref="F4" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId10"/>
-    <hyperlink ref="C5" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId12"/>
-    <hyperlink ref="C6" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A7" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId14"/>
-    <hyperlink ref="C7" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A8" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId16"/>
-    <hyperlink ref="C8" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A9" display=".localization-config" r:id="rId18"/>
+    <hyperlink ref="A2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="A4" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId8"/>
+    <hyperlink ref="C4" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId10"/>
+    <hyperlink ref="C5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId12"/>
+    <hyperlink ref="F5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId18"/>
+    <hyperlink ref="C8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A9" display=".localization-config" r:id="rId20"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>File Name</t>
   </si>
@@ -55,6 +55,9 @@
     <t>23d785a5-46aa-4652-9eb4-47fb758425bd.md</t>
   </si>
   <si>
+    <t>31594a0c-6c17-412a-8169-1e82c9dcd253.md</t>
+  </si>
+  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -139,6 +142,12 @@
     <t>2016-01-27 07:33:53</t>
   </si>
   <si>
+    <t>31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:43:18</t>
+  </si>
+  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -185,6 +194,12 @@
   </si>
   <si>
     <t>2016-01-27 07:34:06</t>
+  </si>
+  <si>
+    <t>31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:43:29</t>
   </si>
 </sst>
 </file>
@@ -289,7 +304,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,10 +408,21 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>14</v>
+      <c r="B10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -408,7 +434,8 @@
     <hyperlink ref="A6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId6"/>
     <hyperlink ref="A7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId7"/>
     <hyperlink ref="A8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId8"/>
-    <hyperlink ref="A9" display=".localization-config" r:id="rId9"/>
+    <hyperlink ref="A9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId9"/>
+    <hyperlink ref="A10" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -419,7 +446,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -438,31 +465,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -473,22 +500,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -499,16 +526,16 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -519,16 +546,16 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -539,22 +566,22 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -565,16 +592,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -585,16 +612,16 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -605,16 +632,16 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -622,16 +649,36 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>41</v>
+      <c r="B10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +701,9 @@
     <hyperlink ref="C7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.zh-cn.xlf" r:id="rId17"/>
     <hyperlink ref="A8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId18"/>
     <hyperlink ref="C8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display=".localization-config" r:id="rId20"/>
+    <hyperlink ref="A9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId20"/>
+    <hyperlink ref="C9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A10" display=".localization-config" r:id="rId22"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -665,7 +714,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -684,31 +733,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -719,22 +768,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -745,16 +794,16 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -765,16 +814,16 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -785,22 +834,22 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -811,16 +860,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -831,16 +880,16 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -851,16 +900,16 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -868,16 +917,36 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>41</v>
+      <c r="B10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -900,7 +969,9 @@
     <hyperlink ref="C7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.de-de.xlf" r:id="rId17"/>
     <hyperlink ref="A8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId18"/>
     <hyperlink ref="C8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display=".localization-config" r:id="rId20"/>
+    <hyperlink ref="A9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId20"/>
+    <hyperlink ref="C9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A10" display=".localization-config" r:id="rId22"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -31,12 +31,15 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>31594a0c-6c17-412a-8169-1e82c9dcd253.md</t>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
     <t>45ab46b1-a3da-4c64-900c-01a6626a3403.md</t>
   </si>
   <si>
-    <t>In Translation</t>
-  </si>
-  <si>
     <t>63a1022c-59de-4b90-b881-954774ddba59.md</t>
   </si>
   <si>
@@ -55,9 +58,6 @@
     <t>23d785a5-46aa-4652-9eb4-47fb758425bd.md</t>
   </si>
   <si>
-    <t>31594a0c-6c17-412a-8169-1e82c9dcd253.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -103,15 +103,21 @@
     <t>Include</t>
   </si>
   <si>
+    <t>31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:43:18</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
     <t>45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-01-27 07:31:41</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
     <t>63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.zh-cn.xlf</t>
   </si>
   <si>
@@ -142,12 +148,6 @@
     <t>2016-01-27 07:33:53</t>
   </si>
   <si>
-    <t>31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:43:18</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -160,6 +160,12 @@
     <t>2016-01-27 07:42:30</t>
   </si>
   <si>
+    <t>31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:43:29</t>
+  </si>
+  <si>
     <t>45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.de-de.xlf</t>
   </si>
   <si>
@@ -194,12 +200,6 @@
   </si>
   <si>
     <t>2016-01-27 07:34:06</t>
-  </si>
-  <si>
-    <t>31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:43:29</t>
   </si>
 </sst>
 </file>
@@ -386,21 +386,21 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -408,10 +408,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -428,13 +428,13 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId9"/>
+    <hyperlink ref="A3" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId9"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -549,7 +549,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>31</v>
@@ -566,19 +566,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>28</v>
@@ -592,13 +586,19 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>31</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>28</v>
@@ -609,7 +609,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>38</v>
@@ -626,10 +626,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>40</v>
@@ -649,7 +649,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>42</v>
@@ -687,22 +687,22 @@
     <hyperlink ref="C2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId4"/>
     <hyperlink ref="F2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId10"/>
-    <hyperlink ref="C5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId12"/>
-    <hyperlink ref="F5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId18"/>
-    <hyperlink ref="C8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId20"/>
-    <hyperlink ref="C9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A3" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A4" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId8"/>
+    <hyperlink ref="C4" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId10"/>
+    <hyperlink ref="C5" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId12"/>
+    <hyperlink ref="C6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="E6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId14"/>
+    <hyperlink ref="F6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A8" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId18"/>
+    <hyperlink ref="C8" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A9" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId20"/>
+    <hyperlink ref="C9" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf" r:id="rId21"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId22"/>
   </hyperlinks>
   <headerFooter/>
@@ -817,7 +817,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>31</v>
@@ -834,19 +834,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>28</v>
@@ -860,13 +854,19 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>55</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>31</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>28</v>
@@ -877,7 +877,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>56</v>
@@ -894,10 +894,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>58</v>
@@ -917,7 +917,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>60</v>
@@ -955,22 +955,22 @@
     <hyperlink ref="C2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId4"/>
     <hyperlink ref="F2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId10"/>
-    <hyperlink ref="C5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="E5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId12"/>
-    <hyperlink ref="F5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId18"/>
-    <hyperlink ref="C8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId20"/>
-    <hyperlink ref="C9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A3" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="A4" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId8"/>
+    <hyperlink ref="C4" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId10"/>
+    <hyperlink ref="C5" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId12"/>
+    <hyperlink ref="C6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="E6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId14"/>
+    <hyperlink ref="F6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A8" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId18"/>
+    <hyperlink ref="C8" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A9" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId20"/>
+    <hyperlink ref="C9" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf" r:id="rId21"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId22"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -31,33 +31,33 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>45ab46b1-a3da-4c64-900c-01a6626a3403.md</t>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>63a1022c-59de-4b90-b881-954774ddba59.md</t>
+  </si>
+  <si>
+    <t>921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md</t>
+  </si>
+  <si>
+    <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md</t>
+  </si>
+  <si>
+    <t>1b73c28e-9aa5-40eb-b732-d3916272f3f6.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>23d785a5-46aa-4652-9eb4-47fb758425bd.md</t>
+  </si>
+  <si>
     <t>31594a0c-6c17-412a-8169-1e82c9dcd253.md</t>
   </si>
   <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>45ab46b1-a3da-4c64-900c-01a6626a3403.md</t>
-  </si>
-  <si>
-    <t>63a1022c-59de-4b90-b881-954774ddba59.md</t>
-  </si>
-  <si>
-    <t>921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md</t>
-  </si>
-  <si>
-    <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md</t>
-  </si>
-  <si>
-    <t>1b73c28e-9aa5-40eb-b732-d3916272f3f6.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>23d785a5-46aa-4652-9eb4-47fb758425bd.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -103,49 +103,49 @@
     <t>Include</t>
   </si>
   <si>
+    <t>45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:31:41</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:36:02</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:36:42</t>
+  </si>
+  <si>
+    <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:33:09</t>
+  </si>
+  <si>
+    <t>1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:40:25</t>
+  </si>
+  <si>
+    <t>23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:33:53</t>
+  </si>
+  <si>
     <t>31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 07:43:18</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:31:41</t>
-  </si>
-  <si>
-    <t>63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:36:02</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:36:42</t>
-  </si>
-  <si>
-    <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:33:09</t>
-  </si>
-  <si>
-    <t>1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:40:25</t>
-  </si>
-  <si>
-    <t>23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:33:53</t>
+    <t>2016-01-27 07:44:36</t>
   </si>
   <si>
     <t>Ignored</t>
@@ -160,46 +160,46 @@
     <t>2016-01-27 07:42:30</t>
   </si>
   <si>
+    <t>45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:31:54</t>
+  </si>
+  <si>
+    <t>63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.de-de.xlf</t>
+  </si>
+  <si>
+    <t>921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:36:13</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:37:00</t>
+  </si>
+  <si>
+    <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:33:19</t>
+  </si>
+  <si>
+    <t>1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:40:36</t>
+  </si>
+  <si>
+    <t>23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:34:06</t>
+  </si>
+  <si>
     <t>31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 07:43:29</t>
-  </si>
-  <si>
-    <t>45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:31:54</t>
-  </si>
-  <si>
-    <t>63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.de-de.xlf</t>
-  </si>
-  <si>
-    <t>921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:36:13</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:37:00</t>
-  </si>
-  <si>
-    <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:33:19</t>
-  </si>
-  <si>
-    <t>1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:40:36</t>
-  </si>
-  <si>
-    <t>23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:34:06</t>
+    <t>2016-01-27 07:44:47</t>
   </si>
 </sst>
 </file>
@@ -386,21 +386,21 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -408,10 +408,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -428,13 +428,13 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId9"/>
+    <hyperlink ref="A3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId9"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -549,7 +549,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>31</v>
@@ -566,13 +566,19 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>28</v>
@@ -586,19 +592,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>28</v>
@@ -609,7 +609,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>38</v>
@@ -626,10 +626,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>40</v>
@@ -649,7 +649,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>42</v>
@@ -687,22 +687,22 @@
     <hyperlink ref="C2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId4"/>
     <hyperlink ref="F2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId10"/>
-    <hyperlink ref="C5" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId12"/>
-    <hyperlink ref="C6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="E6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId14"/>
-    <hyperlink ref="F6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId18"/>
-    <hyperlink ref="C8" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId20"/>
-    <hyperlink ref="C9" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A4" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId8"/>
+    <hyperlink ref="C4" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId10"/>
+    <hyperlink ref="C5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId12"/>
+    <hyperlink ref="F5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId18"/>
+    <hyperlink ref="C8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId20"/>
+    <hyperlink ref="C9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.zh-cn.xlf" r:id="rId21"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId22"/>
   </hyperlinks>
   <headerFooter/>
@@ -817,7 +817,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>31</v>
@@ -834,13 +834,19 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>28</v>
@@ -854,19 +860,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>28</v>
@@ -877,7 +877,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>56</v>
@@ -894,10 +894,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>58</v>
@@ -917,7 +917,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>60</v>
@@ -955,22 +955,22 @@
     <hyperlink ref="C2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId4"/>
     <hyperlink ref="F2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId10"/>
-    <hyperlink ref="C5" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId12"/>
-    <hyperlink ref="C6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="E6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId14"/>
-    <hyperlink ref="F6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId18"/>
-    <hyperlink ref="C8" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId20"/>
-    <hyperlink ref="C9" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="A4" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId8"/>
+    <hyperlink ref="C4" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId10"/>
+    <hyperlink ref="C5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId12"/>
+    <hyperlink ref="F5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId18"/>
+    <hyperlink ref="C8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId20"/>
+    <hyperlink ref="C9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.de-de.xlf" r:id="rId21"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId22"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>File Name</t>
   </si>
@@ -25,12 +25,15 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>31594a0c-6c17-412a-8169-1e82c9dcd253.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>eec3b823-3712-4a2e-b259-21e54d0d1733.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>45ab46b1-a3da-4c64-900c-01a6626a3403.md</t>
   </si>
   <si>
@@ -55,9 +58,6 @@
     <t>23d785a5-46aa-4652-9eb4-47fb758425bd.md</t>
   </si>
   <si>
-    <t>31594a0c-6c17-412a-8169-1e82c9dcd253.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -91,6 +91,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:44:36</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:45:18</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.zh-cn.xlf</t>
   </si>
   <si>
@@ -100,9 +112,6 @@
     <t>2016-01-27 07:42:11</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.zh-cn.xlf</t>
   </si>
   <si>
@@ -142,15 +151,18 @@
     <t>2016-01-27 07:33:53</t>
   </si>
   <si>
-    <t>31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:44:36</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:44:47</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:45:38</t>
+  </si>
+  <si>
     <t>eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.de-de.xlf</t>
   </si>
   <si>
@@ -194,12 +206,6 @@
   </si>
   <si>
     <t>2016-01-27 07:34:06</t>
-  </si>
-  <si>
-    <t>31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:44:47</t>
   </si>
 </sst>
 </file>
@@ -342,21 +348,21 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -364,10 +370,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -375,10 +381,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -386,21 +392,21 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -408,10 +414,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -427,14 +433,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId9"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -523,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
@@ -531,6 +537,12 @@
       <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>31</v>
       </c>
@@ -540,19 +552,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>28</v>
@@ -563,22 +575,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>28</v>
@@ -589,7 +595,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>36</v>
@@ -597,8 +603,14 @@
       <c r="D6" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G6" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>28</v>
@@ -609,16 +621,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>28</v>
@@ -626,19 +638,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>28</v>
@@ -649,16 +661,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>28</v>
@@ -672,38 +684,40 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId10"/>
-    <hyperlink ref="C5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId12"/>
-    <hyperlink ref="F5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId18"/>
-    <hyperlink ref="C8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId20"/>
-    <hyperlink ref="C9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A10" display=".localization-config" r:id="rId22"/>
+    <hyperlink ref="A2" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A5" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="E6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId16"/>
+    <hyperlink ref="F6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A7" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId18"/>
+    <hyperlink ref="C7" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A8" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId20"/>
+    <hyperlink ref="C8" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A9" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId22"/>
+    <hyperlink ref="C9" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A10" display=".localization-config" r:id="rId24"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -768,19 +782,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>28</v>
@@ -791,16 +805,22 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>28</v>
@@ -808,19 +828,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>28</v>
@@ -831,22 +851,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>28</v>
@@ -857,16 +871,22 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>28</v>
@@ -877,16 +897,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>28</v>
@@ -894,19 +914,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>28</v>
@@ -917,16 +937,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>28</v>
@@ -940,38 +960,40 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId10"/>
-    <hyperlink ref="C5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="E5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId12"/>
-    <hyperlink ref="F5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId18"/>
-    <hyperlink ref="C8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId20"/>
-    <hyperlink ref="C9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.de-de.xlf" r:id="rId21"/>
-    <hyperlink ref="A10" display=".localization-config" r:id="rId22"/>
+    <hyperlink ref="A2" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A5" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="E6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId16"/>
+    <hyperlink ref="F6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A7" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId18"/>
+    <hyperlink ref="C7" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A8" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId20"/>
+    <hyperlink ref="C8" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A9" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId22"/>
+    <hyperlink ref="C9" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="A10" display=".localization-config" r:id="rId24"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -25,39 +25,39 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>eec3b823-3712-4a2e-b259-21e54d0d1733.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>45ab46b1-a3da-4c64-900c-01a6626a3403.md</t>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>63a1022c-59de-4b90-b881-954774ddba59.md</t>
+  </si>
+  <si>
+    <t>921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md</t>
+  </si>
+  <si>
+    <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md</t>
+  </si>
+  <si>
+    <t>1b73c28e-9aa5-40eb-b732-d3916272f3f6.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>23d785a5-46aa-4652-9eb4-47fb758425bd.md</t>
+  </si>
+  <si>
     <t>31594a0c-6c17-412a-8169-1e82c9dcd253.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>eec3b823-3712-4a2e-b259-21e54d0d1733.md</t>
-  </si>
-  <si>
-    <t>45ab46b1-a3da-4c64-900c-01a6626a3403.md</t>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>63a1022c-59de-4b90-b881-954774ddba59.md</t>
-  </si>
-  <si>
-    <t>921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md</t>
-  </si>
-  <si>
-    <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md</t>
-  </si>
-  <si>
-    <t>1b73c28e-9aa5-40eb-b732-d3916272f3f6.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>23d785a5-46aa-4652-9eb4-47fb758425bd.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -91,121 +91,121 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:41:14</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:42:11</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:31:41</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:36:02</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:36:42</t>
+  </si>
+  <si>
+    <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:33:09</t>
+  </si>
+  <si>
+    <t>1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:40:25</t>
+  </si>
+  <si>
+    <t>23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:33:53</t>
+  </si>
+  <si>
     <t>31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 07:44:36</t>
+    <t>2016-01-27 07:46:20</t>
   </si>
   <si>
     <t>2016-01-27 07:45:18</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:41:14</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:42:11</t>
-  </si>
-  <si>
-    <t>45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:31:41</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:36:02</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:36:42</t>
-  </si>
-  <si>
-    <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:33:09</t>
-  </si>
-  <si>
-    <t>1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:40:25</t>
-  </si>
-  <si>
-    <t>23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:33:53</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:41:26</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:42:30</t>
+  </si>
+  <si>
+    <t>45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:31:54</t>
+  </si>
+  <si>
+    <t>63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.de-de.xlf</t>
+  </si>
+  <si>
+    <t>921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:36:13</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:37:00</t>
+  </si>
+  <si>
+    <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:33:19</t>
+  </si>
+  <si>
+    <t>1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:40:36</t>
+  </si>
+  <si>
+    <t>23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:34:06</t>
+  </si>
+  <si>
     <t>31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 07:44:47</t>
+    <t>2016-01-27 07:46:34</t>
   </si>
   <si>
     <t>2016-01-27 07:45:38</t>
-  </si>
-  <si>
-    <t>eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:41:26</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:42:30</t>
-  </si>
-  <si>
-    <t>45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:31:54</t>
-  </si>
-  <si>
-    <t>63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.de-de.xlf</t>
-  </si>
-  <si>
-    <t>921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:36:13</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:37:00</t>
-  </si>
-  <si>
-    <t>df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:33:19</t>
-  </si>
-  <si>
-    <t>1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:40:36</t>
-  </si>
-  <si>
-    <t>23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:34:06</t>
   </si>
 </sst>
 </file>
@@ -348,21 +348,21 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -370,10 +370,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -381,10 +381,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -392,21 +392,21 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -414,10 +414,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -433,14 +433,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId9"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -529,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
@@ -537,12 +537,6 @@
       <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G3" s="0" t="s">
         <v>31</v>
       </c>
@@ -552,19 +546,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>28</v>
@@ -575,16 +569,22 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>34</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>28</v>
@@ -595,7 +595,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>36</v>
@@ -603,14 +603,8 @@
       <c r="D6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>28</v>
@@ -621,16 +615,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>28</v>
@@ -638,19 +632,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="G8" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>28</v>
@@ -661,16 +655,22 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>34</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>28</v>
@@ -684,10 +684,10 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>45</v>
@@ -695,28 +695,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId12"/>
-    <hyperlink ref="C5" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="E6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId16"/>
-    <hyperlink ref="F6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A7" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId18"/>
-    <hyperlink ref="C7" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A8" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId20"/>
-    <hyperlink ref="C8" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A9" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId22"/>
-    <hyperlink ref="C9" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A4" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId8"/>
+    <hyperlink ref="C4" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId10"/>
+    <hyperlink ref="C5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId12"/>
+    <hyperlink ref="F5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId18"/>
+    <hyperlink ref="C8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId20"/>
+    <hyperlink ref="C9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="E9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId22"/>
+    <hyperlink ref="F9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.zh-cn.xlf" r:id="rId23"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId24"/>
   </hyperlinks>
   <headerFooter/>
@@ -805,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>49</v>
@@ -813,14 +813,8 @@
       <c r="D3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>28</v>
@@ -828,19 +822,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>28</v>
@@ -851,16 +845,22 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="G5" s="0" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>28</v>
@@ -871,7 +871,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>55</v>
@@ -879,14 +879,8 @@
       <c r="D6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>28</v>
@@ -897,16 +891,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>28</v>
@@ -914,19 +908,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="G8" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>28</v>
@@ -937,16 +931,22 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>34</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>28</v>
@@ -960,10 +960,10 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>45</v>
@@ -971,28 +971,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId12"/>
-    <hyperlink ref="C5" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="E6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId16"/>
-    <hyperlink ref="F6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A7" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId18"/>
-    <hyperlink ref="C7" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A8" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId20"/>
-    <hyperlink ref="C8" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.de-de.xlf" r:id="rId21"/>
-    <hyperlink ref="A9" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId22"/>
-    <hyperlink ref="C9" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="A2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="A4" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId8"/>
+    <hyperlink ref="C4" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId10"/>
+    <hyperlink ref="C5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId12"/>
+    <hyperlink ref="F5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId18"/>
+    <hyperlink ref="C8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId20"/>
+    <hyperlink ref="C9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="E9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId22"/>
+    <hyperlink ref="F9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.de-de.xlf" r:id="rId23"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId24"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -25,12 +25,15 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>31594a0c-6c17-412a-8169-1e82c9dcd253.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>eec3b823-3712-4a2e-b259-21e54d0d1733.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>45ab46b1-a3da-4c64-900c-01a6626a3403.md</t>
   </si>
   <si>
@@ -55,9 +58,6 @@
     <t>23d785a5-46aa-4652-9eb4-47fb758425bd.md</t>
   </si>
   <si>
-    <t>31594a0c-6c17-412a-8169-1e82c9dcd253.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -91,6 +91,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:46:20</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:47:05</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.zh-cn.xlf</t>
   </si>
   <si>
@@ -100,9 +112,6 @@
     <t>2016-01-27 07:42:11</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.zh-cn.xlf</t>
   </si>
   <si>
@@ -142,18 +151,18 @@
     <t>2016-01-27 07:33:53</t>
   </si>
   <si>
-    <t>31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:46:20</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:45:18</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:46:34</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:47:25</t>
+  </si>
+  <si>
     <t>eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.de-de.xlf</t>
   </si>
   <si>
@@ -197,15 +206,6 @@
   </si>
   <si>
     <t>2016-01-27 07:34:06</t>
-  </si>
-  <si>
-    <t>31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:46:34</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:45:38</t>
   </si>
 </sst>
 </file>
@@ -348,21 +348,21 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -370,10 +370,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -381,10 +381,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -392,21 +392,21 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -414,10 +414,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -433,14 +433,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId9"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -529,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
@@ -537,6 +537,12 @@
       <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>31</v>
       </c>
@@ -546,19 +552,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>28</v>
@@ -569,22 +575,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>28</v>
@@ -595,7 +595,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>36</v>
@@ -603,8 +603,14 @@
       <c r="D6" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G6" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>28</v>
@@ -615,16 +621,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>28</v>
@@ -632,19 +638,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>28</v>
@@ -655,22 +661,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>28</v>
@@ -684,10 +684,10 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>45</v>
@@ -695,28 +695,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId10"/>
-    <hyperlink ref="C5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId12"/>
-    <hyperlink ref="F5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId18"/>
-    <hyperlink ref="C8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId20"/>
-    <hyperlink ref="C9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="E9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId22"/>
-    <hyperlink ref="F9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A2" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A5" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="E6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId16"/>
+    <hyperlink ref="F6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A7" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId18"/>
+    <hyperlink ref="C7" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A8" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId20"/>
+    <hyperlink ref="C8" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A9" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId22"/>
+    <hyperlink ref="C9" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.zh-cn.xlf" r:id="rId23"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId24"/>
   </hyperlinks>
   <headerFooter/>
@@ -805,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>49</v>
@@ -813,8 +813,14 @@
       <c r="D3" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="G3" s="0" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>28</v>
@@ -822,19 +828,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>28</v>
@@ -845,22 +851,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>28</v>
@@ -871,7 +871,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>55</v>
@@ -879,8 +879,14 @@
       <c r="D6" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="G6" s="0" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>28</v>
@@ -891,16 +897,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>28</v>
@@ -908,19 +914,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>28</v>
@@ -931,22 +937,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>28</v>
@@ -960,10 +960,10 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>45</v>
@@ -971,28 +971,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId10"/>
-    <hyperlink ref="C5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="E5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId12"/>
-    <hyperlink ref="F5" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId18"/>
-    <hyperlink ref="C8" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId20"/>
-    <hyperlink ref="C9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.de-de.xlf" r:id="rId21"/>
-    <hyperlink ref="E9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId22"/>
-    <hyperlink ref="F9" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="A2" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="31594a0c-6c17-412a-8169-1e82c9dcd253.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="31594a0c-6c17-412a-8169-1e82c9dcd253.db43fdaeeb3012fcdf36a6cf5f07324cfb6c0a7e.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="eec3b823-3712-4a2e-b259-21e54d0d1733.2f37907d0ef20c31b60c31e37dff6a0908268a5e.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="45ab46b1-a3da-4c64-900c-01a6626a3403.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="45ab46b1-a3da-4c64-900c-01a6626a3403.35ab93de71560737c2c1cca29c0440036e8e747a.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A5" display="63a1022c-59de-4b90-b881-954774ddba59.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="63a1022c-59de-4b90-b881-954774ddba59.5f8c61013e7c46d50833d3d48315614239f68af8.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="E6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.md" r:id="rId16"/>
+    <hyperlink ref="F6" display="921aeae9-1c9b-4143-88d3-15eb7a11dd6a.417cf9edef164e58966fcef3893ca2e9817f40d2.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A7" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.md" r:id="rId18"/>
+    <hyperlink ref="C7" display="df0478a4-87d5-45a4-b5fb-b1a6adc0bcf6.713b575872537f9075ef300a365bb1924d255190.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A8" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.md" r:id="rId20"/>
+    <hyperlink ref="C8" display="1b73c28e-9aa5-40eb-b732-d3916272f3f6.d5382bc87a7b753e2423e5b9f13ed5842f27b754.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A9" display="23d785a5-46aa-4652-9eb4-47fb758425bd.md" r:id="rId22"/>
+    <hyperlink ref="C9" display="23d785a5-46aa-4652-9eb4-47fb758425bd.cbb0ee4354197207cc1fe370a1a8ff2300d647ec.de-de.xlf" r:id="rId23"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId24"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>a.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>b.md</t>
@@ -73,12 +73,15 @@
     <t>2016-01-27 07:48:36</t>
   </si>
   <si>
+    <t>2016-01-27 07:49:28</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>2016-01-27 07:48:48</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:49:46</t>
   </si>
 </sst>
 </file>
@@ -319,6 +325,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -339,6 +351,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -354,22 +372,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a.md" r:id="rId2"/>
     <hyperlink ref="C2" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="a.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="b.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="a.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -434,13 +456,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -454,13 +482,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -474,22 +508,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a.md" r:id="rId2"/>
     <hyperlink ref="C2" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="a.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="b.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="a.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>File Name</t>
   </si>
@@ -34,6 +34,9 @@
     <t>b.md</t>
   </si>
   <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -79,6 +82,12 @@
     <t>Include</t>
   </si>
   <si>
+    <t>b.63290e5768f688058c7b37413b0a5c26c308f864.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:50:23</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -92,6 +101,12 @@
   </si>
   <si>
     <t>2016-01-27 07:49:46</t>
+  </si>
+  <si>
+    <t>b.63290e5768f688058c7b37413b0a5c26c308f864.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:50:34</t>
   </si>
 </sst>
 </file>
@@ -234,21 +249,21 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -285,31 +300,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -320,22 +335,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -343,42 +358,42 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -388,7 +403,7 @@
     <hyperlink ref="E2" display="a.md" r:id="rId4"/>
     <hyperlink ref="F2" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.zh-cn.xlf" r:id="rId5"/>
     <hyperlink ref="A3" display="b.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="C3" display="b.63290e5768f688058c7b37413b0a5c26c308f864.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="a.md" r:id="rId8"/>
     <hyperlink ref="F3" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.zh-cn.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
@@ -421,31 +436,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -456,22 +471,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -479,42 +494,42 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -524,7 +539,7 @@
     <hyperlink ref="E2" display="a.md" r:id="rId4"/>
     <hyperlink ref="F2" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf" r:id="rId5"/>
     <hyperlink ref="A3" display="b.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="C3" display="b.63290e5768f688058c7b37413b0a5c26c308f864.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="a.md" r:id="rId8"/>
     <hyperlink ref="F3" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -34,7 +34,7 @@
     <t>b.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>.localization-config</t>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>bfbc7f52-3c9f-477c-be20-ab4db1ce16e3.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>e22cf724-ad23-4eda-9f93-9afdb7c690f3.md</t>
@@ -73,15 +73,18 @@
     <t>2016-01-27 07:53:48</t>
   </si>
   <si>
+    <t>2016-01-27 07:54:35</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>2016-01-27 07:54:01</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:54:57</t>
   </si>
   <si>
     <t>e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.de-de.xlf</t>
@@ -325,6 +331,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -345,6 +357,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -360,22 +378,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="bfbc7f52-3c9f-477c-be20-ab4db1ce16e3.md" r:id="rId2"/>
     <hyperlink ref="C2" display="bfbc7f52-3c9f-477c-be20-ab4db1ce16e3.abb0bc0dacb9ab0fcbcdebacaef08b87cabfe69f.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="bfbc7f52-3c9f-477c-be20-ab4db1ce16e3.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="bfbc7f52-3c9f-477c-be20-ab4db1ce16e3.abb0bc0dacb9ab0fcbcdebacaef08b87cabfe69f.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -440,13 +462,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -460,13 +488,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -480,22 +514,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="bfbc7f52-3c9f-477c-be20-ab4db1ce16e3.md" r:id="rId2"/>
     <hyperlink ref="C2" display="bfbc7f52-3c9f-477c-be20-ab4db1ce16e3.abb0bc0dacb9ab0fcbcdebacaef08b87cabfe69f.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="bfbc7f52-3c9f-477c-be20-ab4db1ce16e3.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="bfbc7f52-3c9f-477c-be20-ab4db1ce16e3.abb0bc0dacb9ab0fcbcdebacaef08b87cabfe69f.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>File Name</t>
   </si>
@@ -34,6 +34,9 @@
     <t>e22cf724-ad23-4eda-9f93-9afdb7c690f3.md</t>
   </si>
   <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-27 07:55:40</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -98,6 +104,9 @@
   </si>
   <si>
     <t>e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:55:52</t>
   </si>
 </sst>
 </file>
@@ -240,21 +249,21 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -291,31 +300,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -326,22 +335,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -349,42 +358,42 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -427,31 +436,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -462,22 +471,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -485,42 +494,42 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>File Name</t>
   </si>
@@ -34,9 +34,6 @@
     <t>e22cf724-ad23-4eda-9f93-9afdb7c690f3.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
     <t>2016-01-27 07:55:40</t>
   </si>
   <si>
+    <t>2016-01-27 07:56:31</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>2016-01-27 07:55:52</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:56:54</t>
   </si>
 </sst>
 </file>
@@ -249,21 +252,21 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -300,31 +303,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -335,22 +338,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -358,33 +361,33 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -436,31 +439,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -486,7 +489,7 @@
         <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -494,7 +497,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
@@ -509,18 +512,18 @@
         <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -25,15 +25,12 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>bfbc7f52-3c9f-477c-be20-ab4db1ce16e3.md</t>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>e22cf724-ad23-4eda-9f93-9afdb7c690f3.md</t>
   </si>
   <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -67,46 +64,28 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>bfbc7f52-3c9f-477c-be20-ab4db1ce16e3.abb0bc0dacb9ab0fcbcdebacaef08b87cabfe69f.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:53:48</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:54:35</t>
+    <t>e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:57:42</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:56:31</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
-    <t>e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:55:40</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:56:31</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
-    <t>bfbc7f52-3c9f-477c-be20-ab4db1ce16e3.abb0bc0dacb9ab0fcbcdebacaef08b87cabfe69f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:54:01</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:54:57</t>
-  </si>
-  <si>
     <t>e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 07:55:52</t>
+    <t>2016-01-27 07:57:55</t>
   </si>
   <si>
     <t>2016-01-27 07:56:54</t>
@@ -214,7 +193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -252,28 +231,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="bfbc7f52-3c9f-477c-be20-ab4db1ce16e3.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId3"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -284,7 +251,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -303,31 +270,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -338,22 +305,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -361,55 +328,25 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="bfbc7f52-3c9f-477c-be20-ab4db1ce16e3.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="bfbc7f52-3c9f-477c-be20-ab4db1ce16e3.abb0bc0dacb9ab0fcbcdebacaef08b87cabfe69f.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="bfbc7f52-3c9f-477c-be20-ab4db1ce16e3.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="bfbc7f52-3c9f-477c-be20-ab4db1ce16e3.abb0bc0dacb9ab0fcbcdebacaef08b87cabfe69f.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A2" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -420,7 +357,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -439,31 +376,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -474,22 +411,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -497,55 +434,25 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="bfbc7f52-3c9f-477c-be20-ab4db1ce16e3.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="bfbc7f52-3c9f-477c-be20-ab4db1ce16e3.abb0bc0dacb9ab0fcbcdebacaef08b87cabfe69f.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="bfbc7f52-3c9f-477c-be20-ab4db1ce16e3.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="bfbc7f52-3c9f-477c-be20-ab4db1ce16e3.abb0bc0dacb9ab0fcbcdebacaef08b87cabfe69f.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A2" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -28,7 +28,7 @@
     <t>e22cf724-ad23-4eda-9f93-9afdb7c690f3.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,7 +70,7 @@
     <t>2016-01-27 07:57:42</t>
   </si>
   <si>
-    <t>2016-01-27 07:56:31</t>
+    <t>2016-01-27 07:58:25</t>
   </si>
   <si>
     <t>Include</t>
@@ -88,7 +88,7 @@
     <t>2016-01-27 07:57:55</t>
   </si>
   <si>
-    <t>2016-01-27 07:56:54</t>
+    <t>2016-01-27 07:58:47</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>File Name</t>
   </si>
@@ -25,21 +25,18 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>607fb9a7-a328-45a5-a8bf-6f94ee76d558.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>b04e787f-2934-4bb5-9b69-e7472f2807d8.md</t>
+  </si>
+  <si>
     <t>e22cf724-ad23-4eda-9f93-9afdb7c690f3.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>607fb9a7-a328-45a5-a8bf-6f94ee76d558.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>b04e787f-2934-4bb5-9b69-e7472f2807d8.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -73,6 +70,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:59:35</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:00:40</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.zh-cn.xlf</t>
   </si>
   <si>
@@ -82,21 +91,21 @@
     <t>2016-01-27 07:58:25</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:59:35</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 07:59:47</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:01:05</t>
+  </si>
+  <si>
     <t>e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.de-de.xlf</t>
   </si>
   <si>
@@ -104,12 +113,6 @@
   </si>
   <si>
     <t>2016-01-27 07:58:47</t>
-  </si>
-  <si>
-    <t>607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 07:59:47</t>
   </si>
 </sst>
 </file>
@@ -252,39 +255,39 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="b04e787f-2934-4bb5-9b69-e7472f2807d8.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="b04e787f-2934-4bb5-9b69-e7472f2807d8.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId4"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
@@ -315,31 +318,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -350,22 +353,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -373,47 +376,59 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>25</v>
@@ -427,15 +442,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="b04e787f-2934-4bb5-9b69-e7472f2807d8.md" r:id="rId6"/>
     <hyperlink ref="C3" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="b04e787f-2934-4bb5-9b69-e7472f2807d8.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="E3" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -465,31 +484,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -515,7 +534,7 @@
         <v>29</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -523,27 +542,33 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>30</v>
@@ -551,19 +576,25 @@
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G4" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>25</v>
@@ -577,15 +608,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="b04e787f-2934-4bb5-9b69-e7472f2807d8.md" r:id="rId6"/>
     <hyperlink ref="C3" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="b04e787f-2934-4bb5-9b69-e7472f2807d8.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="E3" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -100,7 +100,7 @@
     <t>604bf654-8a28-4443-8ce1-5f6a57b677b4.4cb8c34f072ccae12bb379fe0d9d451071a17e50.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 08:02:03</t>
+    <t>2016-01-27 08:02:56</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -130,7 +130,7 @@
     <t>604bf654-8a28-4443-8ce1-5f6a57b677b4.4cb8c34f072ccae12bb379fe0d9d451071a17e50.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 08:02:17</t>
+    <t>2016-01-27 08:03:12</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>File Name</t>
   </si>
@@ -25,24 +25,21 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>604bf654-8a28-4443-8ce1-5f6a57b677b4.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>607fb9a7-a328-45a5-a8bf-6f94ee76d558.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>b04e787f-2934-4bb5-9b69-e7472f2807d8.md</t>
   </si>
   <si>
     <t>e22cf724-ad23-4eda-9f93-9afdb7c690f3.md</t>
   </si>
   <si>
-    <t>604bf654-8a28-4443-8ce1-5f6a57b677b4.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -76,6 +73,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>604bf654-8a28-4443-8ce1-5f6a57b677b4.4cb8c34f072ccae12bb379fe0d9d451071a17e50.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:02:56</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:05:25</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.zh-cn.xlf</t>
   </si>
   <si>
@@ -85,9 +94,6 @@
     <t>2016-01-27 08:00:40</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.zh-cn.xlf</t>
   </si>
   <si>
@@ -97,18 +103,21 @@
     <t>2016-01-27 07:58:25</t>
   </si>
   <si>
-    <t>604bf654-8a28-4443-8ce1-5f6a57b677b4.4cb8c34f072ccae12bb379fe0d9d451071a17e50.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:02:56</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>604bf654-8a28-4443-8ce1-5f6a57b677b4.4cb8c34f072ccae12bb379fe0d9d451071a17e50.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:03:12</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:05:50</t>
+  </si>
+  <si>
     <t>607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.de-de.xlf</t>
   </si>
   <si>
@@ -125,12 +134,6 @@
   </si>
   <si>
     <t>2016-01-27 07:58:47</t>
-  </si>
-  <si>
-    <t>604bf654-8a28-4443-8ce1-5f6a57b677b4.4cb8c34f072ccae12bb379fe0d9d451071a17e50.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:03:12</t>
   </si>
 </sst>
 </file>
@@ -295,29 +298,29 @@
         <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="b04e787f-2934-4bb5-9b69-e7472f2807d8.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="604bf654-8a28-4443-8ce1-5f6a57b677b4.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="604bf654-8a28-4443-8ce1-5f6a57b677b4.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="b04e787f-2934-4bb5-9b69-e7472f2807d8.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId5"/>
     <hyperlink ref="A6" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
@@ -348,31 +351,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -383,22 +386,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -409,22 +412,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -435,22 +438,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -458,27 +461,33 @@
         <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="H5" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>29</v>
@@ -492,21 +501,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="b04e787f-2934-4bb5-9b69-e7472f2807d8.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="604bf654-8a28-4443-8ce1-5f6a57b677b4.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="604bf654-8a28-4443-8ce1-5f6a57b677b4.4cb8c34f072ccae12bb379fe0d9d451071a17e50.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="604bf654-8a28-4443-8ce1-5f6a57b677b4.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="604bf654-8a28-4443-8ce1-5f6a57b677b4.4cb8c34f072ccae12bb379fe0d9d451071a17e50.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId6"/>
     <hyperlink ref="C3" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId8"/>
     <hyperlink ref="F3" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="604bf654-8a28-4443-8ce1-5f6a57b677b4.md" r:id="rId14"/>
-    <hyperlink ref="C5" display="604bf654-8a28-4443-8ce1-5f6a57b677b4.4cb8c34f072ccae12bb379fe0d9d451071a17e50.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A6" display=".localization-config" r:id="rId16"/>
+    <hyperlink ref="A4" display="b04e787f-2934-4bb5-9b69-e7472f2807d8.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId14"/>
+    <hyperlink ref="C5" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="E5" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId16"/>
+    <hyperlink ref="F5" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display=".localization-config" r:id="rId18"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -536,31 +547,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -586,7 +597,7 @@
         <v>33</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -597,22 +608,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -629,7 +640,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>34</v>
@@ -638,7 +649,7 @@
         <v>36</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -646,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
@@ -654,19 +665,25 @@
       <c r="D5" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G5" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>29</v>
@@ -680,21 +697,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="b04e787f-2934-4bb5-9b69-e7472f2807d8.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="604bf654-8a28-4443-8ce1-5f6a57b677b4.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="604bf654-8a28-4443-8ce1-5f6a57b677b4.4cb8c34f072ccae12bb379fe0d9d451071a17e50.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="604bf654-8a28-4443-8ce1-5f6a57b677b4.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="604bf654-8a28-4443-8ce1-5f6a57b677b4.4cb8c34f072ccae12bb379fe0d9d451071a17e50.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId6"/>
     <hyperlink ref="C3" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId8"/>
     <hyperlink ref="F3" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="604bf654-8a28-4443-8ce1-5f6a57b677b4.md" r:id="rId14"/>
-    <hyperlink ref="C5" display="604bf654-8a28-4443-8ce1-5f6a57b677b4.4cb8c34f072ccae12bb379fe0d9d451071a17e50.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A6" display=".localization-config" r:id="rId16"/>
+    <hyperlink ref="A4" display="b04e787f-2934-4bb5-9b69-e7472f2807d8.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId14"/>
+    <hyperlink ref="C5" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="E5" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId16"/>
+    <hyperlink ref="F5" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display=".localization-config" r:id="rId18"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -112,7 +112,7 @@
     <t>1325594e-92c3-45a5-9807-f6fadf4f0b3b.7c212f4a7491c2526c4d36488333f901d03d6ff7.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 08:06:52</t>
+    <t>2016-01-27 08:07:50</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -151,7 +151,7 @@
     <t>1325594e-92c3-45a5-9807-f6fadf4f0b3b.7c212f4a7491c2526c4d36488333f901d03d6ff7.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 08:07:08</t>
+    <t>2016-01-27 08:08:08</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>File Name</t>
   </si>
@@ -25,12 +25,15 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>1325594e-92c3-45a5-9807-f6fadf4f0b3b.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>604bf654-8a28-4443-8ce1-5f6a57b677b4.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>607fb9a7-a328-45a5-a8bf-6f94ee76d558.md</t>
   </si>
   <si>
@@ -40,12 +43,6 @@
     <t>e22cf724-ad23-4eda-9f93-9afdb7c690f3.md</t>
   </si>
   <si>
-    <t>1325594e-92c3-45a5-9807-f6fadf4f0b3b.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -79,6 +76,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>1325594e-92c3-45a5-9807-f6fadf4f0b3b.7c212f4a7491c2526c4d36488333f901d03d6ff7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:07:50</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:08:45</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>604bf654-8a28-4443-8ce1-5f6a57b677b4.4cb8c34f072ccae12bb379fe0d9d451071a17e50.zh-cn.xlf</t>
   </si>
   <si>
@@ -88,9 +97,6 @@
     <t>2016-01-27 08:05:25</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.zh-cn.xlf</t>
   </si>
   <si>
@@ -109,18 +115,21 @@
     <t>2016-01-27 07:58:25</t>
   </si>
   <si>
-    <t>1325594e-92c3-45a5-9807-f6fadf4f0b3b.7c212f4a7491c2526c4d36488333f901d03d6ff7.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:07:50</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>1325594e-92c3-45a5-9807-f6fadf4f0b3b.7c212f4a7491c2526c4d36488333f901d03d6ff7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:08:08</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:09:09</t>
+  </si>
+  <si>
     <t>604bf654-8a28-4443-8ce1-5f6a57b677b4.4cb8c34f072ccae12bb379fe0d9d451071a17e50.de-de.xlf</t>
   </si>
   <si>
@@ -146,12 +155,6 @@
   </si>
   <si>
     <t>2016-01-27 07:58:47</t>
-  </si>
-  <si>
-    <t>1325594e-92c3-45a5-9807-f6fadf4f0b3b.7c212f4a7491c2526c4d36488333f901d03d6ff7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:08:08</t>
   </si>
 </sst>
 </file>
@@ -327,30 +330,30 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="604bf654-8a28-4443-8ce1-5f6a57b677b4.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="b04e787f-2934-4bb5-9b69-e7472f2807d8.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="1325594e-92c3-45a5-9807-f6fadf4f0b3b.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="1325594e-92c3-45a5-9807-f6fadf4f0b3b.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="604bf654-8a28-4443-8ce1-5f6a57b677b4.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="b04e787f-2934-4bb5-9b69-e7472f2807d8.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId6"/>
     <hyperlink ref="A7" display=".localization-config" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
@@ -381,31 +384,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2">
@@ -416,22 +419,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -442,22 +445,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -468,22 +471,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -494,22 +497,22 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="H5" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -517,27 +520,33 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>33</v>
@@ -551,25 +560,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="604bf654-8a28-4443-8ce1-5f6a57b677b4.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="604bf654-8a28-4443-8ce1-5f6a57b677b4.4cb8c34f072ccae12bb379fe0d9d451071a17e50.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="604bf654-8a28-4443-8ce1-5f6a57b677b4.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="604bf654-8a28-4443-8ce1-5f6a57b677b4.4cb8c34f072ccae12bb379fe0d9d451071a17e50.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="b04e787f-2934-4bb5-9b69-e7472f2807d8.md" r:id="rId10"/>
+    <hyperlink ref="A2" display="1325594e-92c3-45a5-9807-f6fadf4f0b3b.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="1325594e-92c3-45a5-9807-f6fadf4f0b3b.7c212f4a7491c2526c4d36488333f901d03d6ff7.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="1325594e-92c3-45a5-9807-f6fadf4f0b3b.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="1325594e-92c3-45a5-9807-f6fadf4f0b3b.7c212f4a7491c2526c4d36488333f901d03d6ff7.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="604bf654-8a28-4443-8ce1-5f6a57b677b4.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="604bf654-8a28-4443-8ce1-5f6a57b677b4.4cb8c34f072ccae12bb379fe0d9d451071a17e50.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="604bf654-8a28-4443-8ce1-5f6a57b677b4.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="604bf654-8a28-4443-8ce1-5f6a57b677b4.4cb8c34f072ccae12bb379fe0d9d451071a17e50.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId10"/>
     <hyperlink ref="C4" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.zh-cn.xlf" r:id="rId11"/>
     <hyperlink ref="E4" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId12"/>
     <hyperlink ref="F4" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId14"/>
-    <hyperlink ref="C5" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="E5" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId16"/>
-    <hyperlink ref="F5" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A6" display="1325594e-92c3-45a5-9807-f6fadf4f0b3b.md" r:id="rId18"/>
-    <hyperlink ref="C6" display="1325594e-92c3-45a5-9807-f6fadf4f0b3b.7c212f4a7491c2526c4d36488333f901d03d6ff7.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A7" display=".localization-config" r:id="rId20"/>
+    <hyperlink ref="A5" display="b04e787f-2934-4bb5-9b69-e7472f2807d8.md" r:id="rId14"/>
+    <hyperlink ref="C5" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="E5" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId16"/>
+    <hyperlink ref="F5" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId18"/>
+    <hyperlink ref="C6" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="E6" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId20"/>
+    <hyperlink ref="F6" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display=".localization-config" r:id="rId22"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -599,31 +610,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2">
@@ -649,7 +660,7 @@
         <v>37</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -675,7 +686,7 @@
         <v>40</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -686,22 +697,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -718,7 +729,7 @@
         <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>41</v>
@@ -727,7 +738,7 @@
         <v>43</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -735,7 +746,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>44</v>
@@ -743,19 +754,25 @@
       <c r="D6" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="G6" s="0" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>33</v>
@@ -769,25 +786,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="604bf654-8a28-4443-8ce1-5f6a57b677b4.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="604bf654-8a28-4443-8ce1-5f6a57b677b4.4cb8c34f072ccae12bb379fe0d9d451071a17e50.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="604bf654-8a28-4443-8ce1-5f6a57b677b4.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="604bf654-8a28-4443-8ce1-5f6a57b677b4.4cb8c34f072ccae12bb379fe0d9d451071a17e50.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="b04e787f-2934-4bb5-9b69-e7472f2807d8.md" r:id="rId10"/>
+    <hyperlink ref="A2" display="1325594e-92c3-45a5-9807-f6fadf4f0b3b.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="1325594e-92c3-45a5-9807-f6fadf4f0b3b.7c212f4a7491c2526c4d36488333f901d03d6ff7.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="1325594e-92c3-45a5-9807-f6fadf4f0b3b.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="1325594e-92c3-45a5-9807-f6fadf4f0b3b.7c212f4a7491c2526c4d36488333f901d03d6ff7.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="604bf654-8a28-4443-8ce1-5f6a57b677b4.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="604bf654-8a28-4443-8ce1-5f6a57b677b4.4cb8c34f072ccae12bb379fe0d9d451071a17e50.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="604bf654-8a28-4443-8ce1-5f6a57b677b4.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="604bf654-8a28-4443-8ce1-5f6a57b677b4.4cb8c34f072ccae12bb379fe0d9d451071a17e50.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId10"/>
     <hyperlink ref="C4" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.de-de.xlf" r:id="rId11"/>
     <hyperlink ref="E4" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId12"/>
     <hyperlink ref="F4" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId14"/>
-    <hyperlink ref="C5" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="E5" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId16"/>
-    <hyperlink ref="F5" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A6" display="1325594e-92c3-45a5-9807-f6fadf4f0b3b.md" r:id="rId18"/>
-    <hyperlink ref="C6" display="1325594e-92c3-45a5-9807-f6fadf4f0b3b.7c212f4a7491c2526c4d36488333f901d03d6ff7.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A7" display=".localization-config" r:id="rId20"/>
+    <hyperlink ref="A5" display="b04e787f-2934-4bb5-9b69-e7472f2807d8.md" r:id="rId14"/>
+    <hyperlink ref="C5" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="E5" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.md" r:id="rId16"/>
+    <hyperlink ref="F5" display="607fb9a7-a328-45a5-a8bf-6f94ee76d558.8faa7814144bac55d03f02c6f5395770348a0b28.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId18"/>
+    <hyperlink ref="C6" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="E6" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.md" r:id="rId20"/>
+    <hyperlink ref="F6" display="e22cf724-ad23-4eda-9f93-9afdb7c690f3.6674d13847fb1cd49e08c75eeaea2f8ace02b11d.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display=".localization-config" r:id="rId22"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -46,7 +46,7 @@
     <t>c9910c7c-958c-4948-9192-5642e959ce30.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handback transform failed</t>
   </si>
   <si>
     <t>.localization-config</t>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>0d44264d-ceb5-48ad-b8f0-a7dbd61ec138.a04bc578a144bf95fdac0f1649eb825ec7417ac7.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 08:14:14</t>
+    <t>2016-01-27 08:15:00</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>0d44264d-ceb5-48ad-b8f0-a7dbd61ec138.a04bc578a144bf95fdac0f1649eb825ec7417ac7.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 08:14:26</t>
+    <t>2016-01-27 08:15:16</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -25,12 +25,18 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>0d44264d-ceb5-48ad-b8f0-a7dbd61ec138.md</t>
+    <t>b4fe5b0b-4ce6-4a74-a8d0-dedd5801e610.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
   </si>
   <si>
+    <t>df1e1583-cfe0-47a3-9e6c-9d66b7db1622.md</t>
+  </si>
+  <si>
+    <t>Handoff transform failed</t>
+  </si>
+  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -64,10 +70,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>0d44264d-ceb5-48ad-b8f0-a7dbd61ec138.a04bc578a144bf95fdac0f1649eb825ec7417ac7.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:15:00</t>
+    <t>b4fe5b0b-4ce6-4a74-a8d0-dedd5801e610.529a8dda16127c2de88b6d910597100f0baa5b10.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:16:16</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -79,10 +85,10 @@
     <t>Ignored</t>
   </si>
   <si>
-    <t>0d44264d-ceb5-48ad-b8f0-a7dbd61ec138.a04bc578a144bf95fdac0f1649eb825ec7417ac7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:15:16</t>
+    <t>b4fe5b0b-4ce6-4a74-a8d0-dedd5801e610.529a8dda16127c2de88b6d910597100f0baa5b10.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:16:28</t>
   </si>
 </sst>
 </file>
@@ -187,7 +193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -231,10 +237,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="0d44264d-ceb5-48ad-b8f0-a7dbd61ec138.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="A2" display="b4fe5b0b-4ce6-4a74-a8d0-dedd5801e610.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="df1e1583-cfe0-47a3-9e6c-9d66b7db1622.md" r:id="rId3"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -245,7 +263,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -264,31 +282,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -299,16 +317,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -319,20 +337,38 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="0d44264d-ceb5-48ad-b8f0-a7dbd61ec138.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="0d44264d-ceb5-48ad-b8f0-a7dbd61ec138.a04bc578a144bf95fdac0f1649eb825ec7417ac7.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="b4fe5b0b-4ce6-4a74-a8d0-dedd5801e610.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="b4fe5b0b-4ce6-4a74-a8d0-dedd5801e610.529a8dda16127c2de88b6d910597100f0baa5b10.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="df1e1583-cfe0-47a3-9e6c-9d66b7db1622.md" r:id="rId4"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -343,7 +379,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -362,31 +398,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -397,16 +433,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -417,20 +453,38 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="0d44264d-ceb5-48ad-b8f0-a7dbd61ec138.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="0d44264d-ceb5-48ad-b8f0-a7dbd61ec138.a04bc578a144bf95fdac0f1649eb825ec7417ac7.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="b4fe5b0b-4ce6-4a74-a8d0-dedd5801e610.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="b4fe5b0b-4ce6-4a74-a8d0-dedd5801e610.529a8dda16127c2de88b6d910597100f0baa5b10.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="df1e1583-cfe0-47a3-9e6c-9d66b7db1622.md" r:id="rId4"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>File Name</t>
   </si>
@@ -25,18 +25,12 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>b4fe5b0b-4ce6-4a74-a8d0-dedd5801e610.md</t>
+    <t>2f48f729-5dd0-4636-a715-fa045eb9a4ba.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>df1e1583-cfe0-47a3-9e6c-9d66b7db1622.md</t>
-  </si>
-  <si>
-    <t>Handoff transform failed</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -70,10 +64,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>b4fe5b0b-4ce6-4a74-a8d0-dedd5801e610.529a8dda16127c2de88b6d910597100f0baa5b10.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:16:16</t>
+    <t>2f48f729-5dd0-4636-a715-fa045eb9a4ba.3b41ba508a47a6cac67718a70e65a1174eb57093.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:17:17</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -85,10 +79,10 @@
     <t>Ignored</t>
   </si>
   <si>
-    <t>b4fe5b0b-4ce6-4a74-a8d0-dedd5801e610.529a8dda16127c2de88b6d910597100f0baa5b10.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:16:28</t>
+    <t>2f48f729-5dd0-4636-a715-fa045eb9a4ba.3b41ba508a47a6cac67718a70e65a1174eb57093.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:17:29</t>
   </si>
 </sst>
 </file>
@@ -193,7 +187,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -237,22 +231,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="b4fe5b0b-4ce6-4a74-a8d0-dedd5801e610.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="df1e1583-cfe0-47a3-9e6c-9d66b7db1622.md" r:id="rId3"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="2f48f729-5dd0-4636-a715-fa045eb9a4ba.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -263,7 +245,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -282,31 +264,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -317,16 +299,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -337,38 +319,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="b4fe5b0b-4ce6-4a74-a8d0-dedd5801e610.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="b4fe5b0b-4ce6-4a74-a8d0-dedd5801e610.529a8dda16127c2de88b6d910597100f0baa5b10.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="df1e1583-cfe0-47a3-9e6c-9d66b7db1622.md" r:id="rId4"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
+    <hyperlink ref="A2" display="2f48f729-5dd0-4636-a715-fa045eb9a4ba.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="2f48f729-5dd0-4636-a715-fa045eb9a4ba.3b41ba508a47a6cac67718a70e65a1174eb57093.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -379,7 +343,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -398,31 +362,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -433,16 +397,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -453,38 +417,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="b4fe5b0b-4ce6-4a74-a8d0-dedd5801e610.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="b4fe5b0b-4ce6-4a74-a8d0-dedd5801e610.529a8dda16127c2de88b6d910597100f0baa5b10.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="df1e1583-cfe0-47a3-9e6c-9d66b7db1622.md" r:id="rId4"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId5"/>
+    <hyperlink ref="A2" display="2f48f729-5dd0-4636-a715-fa045eb9a4ba.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="2f48f729-5dd0-4636-a715-fa045eb9a4ba.3b41ba508a47a6cac67718a70e65a1174eb57093.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>2f48f729-5dd0-4636-a715-fa045eb9a4ba.3b41ba508a47a6cac67718a70e65a1174eb57093.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 08:17:17</t>
+    <t>2016-01-27 08:17:54</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>2f48f729-5dd0-4636-a715-fa045eb9a4ba.3b41ba508a47a6cac67718a70e65a1174eb57093.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 08:17:29</t>
+    <t>2016-01-27 08:18:09</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -67,7 +67,7 @@
     <t>2f48f729-5dd0-4636-a715-fa045eb9a4ba.3b41ba508a47a6cac67718a70e65a1174eb57093.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 08:17:54</t>
+    <t>2016-01-27 08:18:40</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -82,7 +82,7 @@
     <t>2f48f729-5dd0-4636-a715-fa045eb9a4ba.3b41ba508a47a6cac67718a70e65a1174eb57093.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 08:18:09</t>
+    <t>2016-01-27 08:18:53</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>File Name</t>
   </si>
@@ -25,10 +25,10 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>2f48f729-5dd0-4636-a715-fa045eb9a4ba.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
+    <t>fc9bd0dc-745f-45f5-8096-bf9b461f5a24.md</t>
+  </si>
+  <si>
+    <t>Handoff transform failed</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -64,25 +64,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>2f48f729-5dd0-4636-a715-fa045eb9a4ba.3b41ba508a47a6cac67718a70e65a1174eb57093.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:18:40</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
-  </si>
-  <si>
-    <t>2f48f729-5dd0-4636-a715-fa045eb9a4ba.3b41ba508a47a6cac67718a70e65a1174eb57093.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:18:53</t>
   </si>
 </sst>
 </file>
@@ -233,7 +218,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="2f48f729-5dd0-4636-a715-fa045eb9a4ba.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="fc9bd0dc-745f-45f5-8096-bf9b461f5a24.md" r:id="rId2"/>
     <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
@@ -298,17 +283,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -319,20 +301,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="2f48f729-5dd0-4636-a715-fa045eb9a4ba.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="2f48f729-5dd0-4636-a715-fa045eb9a4ba.3b41ba508a47a6cac67718a70e65a1174eb57093.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="fc9bd0dc-745f-45f5-8096-bf9b461f5a24.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -396,17 +377,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -417,20 +395,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="2f48f729-5dd0-4636-a715-fa045eb9a4ba.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="2f48f729-5dd0-4636-a715-fa045eb9a4ba.3b41ba508a47a6cac67718a70e65a1174eb57093.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A2" display="fc9bd0dc-745f-45f5-8096-bf9b461f5a24.md" r:id="rId2"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>fc9bd0dc-745f-45f5-8096-bf9b461f5a24.md</t>
   </si>
   <si>
-    <t>Handoff transform failed</t>
+    <t>Ready for handoff</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -64,10 +64,25 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>fc9bd0dc-745f-45f5-8096-bf9b461f5a24.876c2a27fd5c10e8992efbd3de3fd177a6c91e8b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:20:43</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>Ignored</t>
+  </si>
+  <si>
+    <t>fc9bd0dc-745f-45f5-8096-bf9b461f5a24.876c2a27fd5c10e8992efbd3de3fd177a6c91e8b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:20:58</t>
   </si>
 </sst>
 </file>
@@ -283,14 +298,17 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -301,19 +319,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="fc9bd0dc-745f-45f5-8096-bf9b461f5a24.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="C2" display="fc9bd0dc-745f-45f5-8096-bf9b461f5a24.876c2a27fd5c10e8992efbd3de3fd177a6c91e8b.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -377,14 +396,17 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -395,19 +417,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="fc9bd0dc-745f-45f5-8096-bf9b461f5a24.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="C2" display="fc9bd0dc-745f-45f5-8096-bf9b461f5a24.876c2a27fd5c10e8992efbd3de3fd177a6c91e8b.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>fc9bd0dc-745f-45f5-8096-bf9b461f5a24.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handoff transform failed</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -64,25 +64,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>fc9bd0dc-745f-45f5-8096-bf9b461f5a24.876c2a27fd5c10e8992efbd3de3fd177a6c91e8b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:20:43</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
-  </si>
-  <si>
-    <t>fc9bd0dc-745f-45f5-8096-bf9b461f5a24.876c2a27fd5c10e8992efbd3de3fd177a6c91e8b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:20:58</t>
   </si>
 </sst>
 </file>
@@ -298,17 +283,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -319,20 +301,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="fc9bd0dc-745f-45f5-8096-bf9b461f5a24.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="fc9bd0dc-745f-45f5-8096-bf9b461f5a24.876c2a27fd5c10e8992efbd3de3fd177a6c91e8b.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -396,17 +377,14 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -417,20 +395,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="fc9bd0dc-745f-45f5-8096-bf9b461f5a24.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="fc9bd0dc-745f-45f5-8096-bf9b461f5a24.876c2a27fd5c10e8992efbd3de3fd177a6c91e8b.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>File Name</t>
   </si>
@@ -25,10 +25,13 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>fc9bd0dc-745f-45f5-8096-bf9b461f5a24.md</t>
-  </si>
-  <si>
-    <t>Handoff transform failed</t>
+    <t>366d26ba-c56f-42f6-8320-c2b4558e46c9.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -64,10 +67,25 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:22:47</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>Ignored</t>
+  </si>
+  <si>
+    <t>366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:23:00</t>
   </si>
 </sst>
 </file>
@@ -172,7 +190,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -210,16 +228,28 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>6</v>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="fc9bd0dc-745f-45f5-8096-bf9b461f5a24.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="A2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId3"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -230,7 +260,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -249,31 +279,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -283,14 +313,17 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -298,22 +331,45 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>17</v>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="fc9bd0dc-745f-45f5-8096-bf9b461f5a24.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="A2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId4"/>
+    <hyperlink ref="C3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -324,7 +380,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -343,31 +399,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -377,14 +433,17 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -392,22 +451,45 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>17</v>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="fc9bd0dc-745f-45f5-8096-bf9b461f5a24.md" r:id="rId2"/>
-    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
+    <hyperlink ref="A2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId4"/>
+    <hyperlink ref="C3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>366d26ba-c56f-42f6-8320-c2b4558e46c9.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md</t>
@@ -73,12 +73,15 @@
     <t>2016-01-27 08:22:47</t>
   </si>
   <si>
+    <t>2016-01-27 08:23:50</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>2016-01-27 08:23:00</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:24:14</t>
   </si>
 </sst>
 </file>
@@ -319,6 +325,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -339,6 +351,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -354,22 +372,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId2"/>
     <hyperlink ref="C2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -434,13 +456,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -454,13 +482,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -474,22 +508,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId2"/>
     <hyperlink ref="C2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>File Name</t>
   </si>
@@ -25,21 +25,18 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md</t>
   </si>
   <si>
-    <t>ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -73,6 +70,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:25:45</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:26:44</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf</t>
   </si>
   <si>
@@ -85,21 +94,21 @@
     <t>2016-01-27 08:23:50</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:25:45</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:26:03</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:27:07</t>
+  </si>
+  <si>
     <t>366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf</t>
   </si>
   <si>
@@ -107,12 +116,6 @@
   </si>
   <si>
     <t>2016-01-27 08:24:14</t>
-  </si>
-  <si>
-    <t>ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:26:03</t>
   </si>
 </sst>
 </file>
@@ -266,28 +269,28 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId4"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
@@ -318,31 +321,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -353,22 +356,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -379,22 +382,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -402,27 +405,33 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
@@ -436,17 +445,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId6"/>
     <hyperlink ref="C3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId8"/>
     <hyperlink ref="F3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display=".localization-config" r:id="rId12"/>
+    <hyperlink ref="A4" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -476,31 +487,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -517,7 +528,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>28</v>
@@ -526,7 +537,7 @@
         <v>30</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -537,22 +548,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>31</v>
@@ -568,19 +579,25 @@
       <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="G4" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
@@ -594,17 +611,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId6"/>
     <hyperlink ref="C3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId8"/>
     <hyperlink ref="F3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display=".localization-config" r:id="rId12"/>
+    <hyperlink ref="A4" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>File Name</t>
   </si>
@@ -25,16 +25,19 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md</t>
+  </si>
+  <si>
     <t>ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md</t>
-  </si>
-  <si>
-    <t>ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md</t>
+    <t>Ready for handoff</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,52 +73,52 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:22:47</t>
+  </si>
+  <si>
+    <t>366d26ba-c56f-42f6-8320-c2b4558e46c9.md</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:23:50</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 08:25:45</t>
+    <t>2016-01-27 08:28:02</t>
   </si>
   <si>
     <t>2016-01-27 08:26:44</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:22:47</t>
-  </si>
-  <si>
-    <t>366d26ba-c56f-42f6-8320-c2b4558e46c9.md</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:23:50</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:23:00</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:24:14</t>
+  </si>
+  <si>
     <t>ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 08:26:03</t>
+    <t>2016-01-27 08:28:17</t>
   </si>
   <si>
     <t>2016-01-27 08:27:07</t>
-  </si>
-  <si>
-    <t>366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:23:00</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:24:14</t>
   </si>
 </sst>
 </file>
@@ -269,28 +272,28 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId4"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
@@ -321,31 +324,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -356,22 +359,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -382,22 +385,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="H3" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -405,58 +408,58 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId6"/>
     <hyperlink ref="C3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId8"/>
     <hyperlink ref="F3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf" r:id="rId13"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
@@ -487,31 +490,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -522,22 +525,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -548,22 +551,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="H3" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -571,58 +574,58 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId6"/>
     <hyperlink ref="C3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId8"/>
     <hyperlink ref="F3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf" r:id="rId13"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>File Name</t>
   </si>
@@ -25,21 +25,18 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md</t>
   </si>
   <si>
-    <t>ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -73,6 +70,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:28:02</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:28:59</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf</t>
   </si>
   <si>
@@ -85,24 +94,21 @@
     <t>2016-01-27 08:23:50</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:28:02</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:26:44</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:28:17</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:29:21</t>
+  </si>
+  <si>
     <t>366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf</t>
   </si>
   <si>
@@ -110,15 +116,6 @@
   </si>
   <si>
     <t>2016-01-27 08:24:14</t>
-  </si>
-  <si>
-    <t>ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:28:17</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:27:07</t>
   </si>
 </sst>
 </file>
@@ -272,28 +269,28 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId4"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
@@ -324,31 +321,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -359,22 +356,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -385,22 +382,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -408,58 +405,58 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId6"/>
     <hyperlink ref="C3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId8"/>
     <hyperlink ref="F3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A4" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId13"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
@@ -490,31 +487,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -525,22 +522,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -551,22 +548,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -574,58 +571,58 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId6"/>
     <hyperlink ref="C3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId8"/>
     <hyperlink ref="F3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A4" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId13"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>File Name</t>
   </si>
@@ -25,16 +25,19 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md</t>
+  </si>
+  <si>
     <t>ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md</t>
-  </si>
-  <si>
-    <t>ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md</t>
+    <t>Ready for handoff</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,52 +73,52 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:22:47</t>
+  </si>
+  <si>
+    <t>366d26ba-c56f-42f6-8320-c2b4558e46c9.md</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:23:50</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 08:28:02</t>
+    <t>2016-01-27 08:29:56</t>
   </si>
   <si>
     <t>2016-01-27 08:28:59</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:22:47</t>
-  </si>
-  <si>
-    <t>366d26ba-c56f-42f6-8320-c2b4558e46c9.md</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:23:50</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:23:00</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:24:14</t>
+  </si>
+  <si>
     <t>ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 08:28:17</t>
+    <t>2016-01-27 08:30:11</t>
   </si>
   <si>
     <t>2016-01-27 08:29:21</t>
-  </si>
-  <si>
-    <t>366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:23:00</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:24:14</t>
   </si>
 </sst>
 </file>
@@ -269,28 +272,28 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId4"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
@@ -321,31 +324,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -356,22 +359,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -382,22 +385,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="H3" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -405,58 +408,58 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId6"/>
     <hyperlink ref="C3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId8"/>
     <hyperlink ref="F3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf" r:id="rId13"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
@@ -487,31 +490,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -522,22 +525,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -548,22 +551,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="H3" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -571,58 +574,58 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId6"/>
     <hyperlink ref="C3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId8"/>
     <hyperlink ref="F3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf" r:id="rId13"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>File Name</t>
   </si>
@@ -25,21 +25,18 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md</t>
   </si>
   <si>
-    <t>ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -73,6 +70,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:29:56</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:30:54</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf</t>
   </si>
   <si>
@@ -85,24 +94,21 @@
     <t>2016-01-27 08:23:50</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:29:56</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:28:59</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:30:11</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:31:17</t>
+  </si>
+  <si>
     <t>366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf</t>
   </si>
   <si>
@@ -110,15 +116,6 @@
   </si>
   <si>
     <t>2016-01-27 08:24:14</t>
-  </si>
-  <si>
-    <t>ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:30:11</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:29:21</t>
   </si>
 </sst>
 </file>
@@ -272,28 +269,28 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId4"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
@@ -324,31 +321,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -359,22 +356,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -385,22 +382,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -408,58 +405,58 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId6"/>
     <hyperlink ref="C3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId8"/>
     <hyperlink ref="F3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A4" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId13"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
@@ -490,31 +487,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -525,22 +522,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -551,22 +548,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -574,58 +571,58 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId6"/>
     <hyperlink ref="C3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId8"/>
     <hyperlink ref="F3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A4" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId13"/>
     <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>File Name</t>
   </si>
@@ -25,16 +25,13 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md</t>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md</t>
-  </si>
-  <si>
-    <t>ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md</t>
+    <t>52ed64bd-7ad3-4b35-98a5-bec23f741d3f.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>5db9de63-b467-4b11-8212-54a0cf1a683f.md</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,52 +67,31 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:29:56</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:30:54</t>
+    <t>52ed64bd-7ad3-4b35-98a5-bec23f741d3f.82dbc4e45d244c08ba4134c49868731c4d30bd08.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:32:11</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
-    <t>366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:22:47</t>
-  </si>
-  <si>
-    <t>366d26ba-c56f-42f6-8320-c2b4558e46c9.md</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:23:50</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>5db9de63-b467-4b11-8212-54a0cf1a683f.06dfc7c78e85c7a2245ee7fa47884b41bd3bd518.zh-cn.xlf</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
-    <t>ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:30:11</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:31:17</t>
-  </si>
-  <si>
-    <t>366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:23:00</t>
-  </si>
-  <si>
-    <t>2016-01-27 08:24:14</t>
+    <t>52ed64bd-7ad3-4b35-98a5-bec23f741d3f.82dbc4e45d244c08ba4134c49868731c4d30bd08.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:32:30</t>
+  </si>
+  <si>
+    <t>5db9de63-b467-4b11-8212-54a0cf1a683f.06dfc7c78e85c7a2245ee7fa47884b41bd3bd518.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -220,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -269,29 +245,17 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId4"/>
-    <hyperlink ref="A5" display=".localization-config" r:id="rId5"/>
+    <hyperlink ref="A2" display="52ed64bd-7ad3-4b35-98a5-bec23f741d3f.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="5db9de63-b467-4b11-8212-54a0cf1a683f.md" r:id="rId3"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -302,7 +266,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -321,31 +285,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -356,22 +320,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -382,22 +340,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -405,59 +357,25 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
+    <hyperlink ref="A2" display="52ed64bd-7ad3-4b35-98a5-bec23f741d3f.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="52ed64bd-7ad3-4b35-98a5-bec23f741d3f.82dbc4e45d244c08ba4134c49868731c4d30bd08.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="5db9de63-b467-4b11-8212-54a0cf1a683f.md" r:id="rId4"/>
+    <hyperlink ref="C3" display="5db9de63-b467-4b11-8212-54a0cf1a683f.06dfc7c78e85c7a2245ee7fa47884b41bd3bd518.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -468,7 +386,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -487,31 +405,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -522,22 +440,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -548,22 +460,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -571,59 +477,25 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="ca3748de-aa4b-483d-b1fe-6683ffb5bcf7.98109d33c3267de9f4d7b2d85aad706e6522b49d.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ffff01b68f77-91a0-458a-b92c-05df0b7578d0.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="ffffff2fff4132-d4ee-47f0-a36f-9793060cefe8.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="366d26ba-c56f-42f6-8320-c2b4558e46c9.f71aeb345eab118bfcd9e86a546e64b28d90b546.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
+    <hyperlink ref="A2" display="52ed64bd-7ad3-4b35-98a5-bec23f741d3f.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="52ed64bd-7ad3-4b35-98a5-bec23f741d3f.82dbc4e45d244c08ba4134c49868731c4d30bd08.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="5db9de63-b467-4b11-8212-54a0cf1a683f.md" r:id="rId4"/>
+    <hyperlink ref="C3" display="5db9de63-b467-4b11-8212-54a0cf1a683f.06dfc7c78e85c7a2245ee7fa47884b41bd3bd518.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>52ed64bd-7ad3-4b35-98a5-bec23f741d3f.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>5db9de63-b467-4b11-8212-54a0cf1a683f.md</t>
@@ -73,15 +73,18 @@
     <t>2016-01-27 08:32:11</t>
   </si>
   <si>
+    <t>2016-01-27 08:33:18</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>5db9de63-b467-4b11-8212-54a0cf1a683f.06dfc7c78e85c7a2245ee7fa47884b41bd3bd518.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>5db9de63-b467-4b11-8212-54a0cf1a683f.06dfc7c78e85c7a2245ee7fa47884b41bd3bd518.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>2016-01-27 08:32:30</t>
+  </si>
+  <si>
+    <t>2016-01-27 08:33:43</t>
   </si>
   <si>
     <t>5db9de63-b467-4b11-8212-54a0cf1a683f.06dfc7c78e85c7a2245ee7fa47884b41bd3bd518.de-de.xlf</t>
@@ -325,6 +331,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -345,6 +357,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -360,22 +378,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="52ed64bd-7ad3-4b35-98a5-bec23f741d3f.md" r:id="rId2"/>
     <hyperlink ref="C2" display="52ed64bd-7ad3-4b35-98a5-bec23f741d3f.82dbc4e45d244c08ba4134c49868731c4d30bd08.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="5db9de63-b467-4b11-8212-54a0cf1a683f.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="5db9de63-b467-4b11-8212-54a0cf1a683f.06dfc7c78e85c7a2245ee7fa47884b41bd3bd518.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="52ed64bd-7ad3-4b35-98a5-bec23f741d3f.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="52ed64bd-7ad3-4b35-98a5-bec23f741d3f.82dbc4e45d244c08ba4134c49868731c4d30bd08.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="5db9de63-b467-4b11-8212-54a0cf1a683f.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="5db9de63-b467-4b11-8212-54a0cf1a683f.06dfc7c78e85c7a2245ee7fa47884b41bd3bd518.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="5db9de63-b467-4b11-8212-54a0cf1a683f.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="5db9de63-b467-4b11-8212-54a0cf1a683f.06dfc7c78e85c7a2245ee7fa47884b41bd3bd518.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -440,13 +462,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -460,13 +488,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -480,22 +514,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="52ed64bd-7ad3-4b35-98a5-bec23f741d3f.md" r:id="rId2"/>
     <hyperlink ref="C2" display="52ed64bd-7ad3-4b35-98a5-bec23f741d3f.82dbc4e45d244c08ba4134c49868731c4d30bd08.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="5db9de63-b467-4b11-8212-54a0cf1a683f.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="5db9de63-b467-4b11-8212-54a0cf1a683f.06dfc7c78e85c7a2245ee7fa47884b41bd3bd518.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="52ed64bd-7ad3-4b35-98a5-bec23f741d3f.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="52ed64bd-7ad3-4b35-98a5-bec23f741d3f.82dbc4e45d244c08ba4134c49868731c4d30bd08.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="5db9de63-b467-4b11-8212-54a0cf1a683f.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="5db9de63-b467-4b11-8212-54a0cf1a683f.06dfc7c78e85c7a2245ee7fa47884b41bd3bd518.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="5db9de63-b467-4b11-8212-54a0cf1a683f.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="5db9de63-b467-4b11-8212-54a0cf1a683f.06dfc7c78e85c7a2245ee7fa47884b41bd3bd518.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -28,7 +28,7 @@
     <t>e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.md</t>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>File Name</t>
   </si>
@@ -34,6 +34,15 @@
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.md</t>
   </si>
   <si>
+    <t>c7e89640-77b8-4370-970f-bf0463e5644d.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>ca5f0528-f586-4664-8880-ed70a9764e1e.md</t>
+  </si>
+  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -82,6 +91,15 @@
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf</t>
   </si>
   <si>
+    <t>c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:02:30</t>
+  </si>
+  <si>
+    <t>ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -92,6 +110,15 @@
   </si>
   <si>
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf</t>
+  </si>
+  <si>
+    <t>c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:02:43</t>
+  </si>
+  <si>
+    <t>ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -196,7 +223,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -251,11 +278,35 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId2"/>
     <hyperlink ref="A3" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId3"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A4" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId5"/>
+    <hyperlink ref="A6" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -266,7 +317,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -285,31 +336,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -320,16 +371,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -340,16 +391,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -359,14 +410,54 @@
       <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -375,7 +466,11 @@
     <hyperlink ref="C2" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="A3" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId4"/>
     <hyperlink ref="C3" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="A4" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId8"/>
+    <hyperlink ref="C5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -386,7 +481,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,31 +500,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -440,16 +535,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -460,16 +555,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -479,14 +574,54 @@
       <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -495,7 +630,11 @@
     <hyperlink ref="C2" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="A3" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId4"/>
     <hyperlink ref="C3" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="A4" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId8"/>
+    <hyperlink ref="C5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>File Name</t>
   </si>
@@ -94,12 +94,15 @@
     <t>c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-29 02:03:13</t>
+  </si>
+  <si>
+    <t>ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-01-29 02:02:30</t>
   </si>
   <si>
-    <t>ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -115,10 +118,13 @@
     <t>c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-01-29 02:03:27</t>
+  </si>
+  <si>
+    <t>ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-01-29 02:02:43</t>
-  </si>
-  <si>
-    <t>ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -434,7 +440,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>22</v>
@@ -457,7 +463,7 @@
         <v>22</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -535,10 +541,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>22</v>
@@ -555,10 +561,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>22</v>
@@ -575,10 +581,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>22</v>
@@ -595,10 +601,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>22</v>
@@ -621,7 +627,7 @@
         <v>22</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -25,12 +25,15 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>ca5f0528-f586-4664-8880-ed70a9764e1e.md</t>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
     <t>e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md</t>
   </si>
   <si>
-    <t>In Translation</t>
-  </si>
-  <si>
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.md</t>
   </si>
   <si>
@@ -40,9 +43,6 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>ca5f0528-f586-4664-8880-ed70a9764e1e.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -76,18 +76,24 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:02:30</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-01-29 02:00:36</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf</t>
   </si>
   <si>
@@ -97,15 +103,15 @@
     <t>2016-01-29 02:03:13</t>
   </si>
   <si>
-    <t>ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:02:30</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:02:43</t>
+  </si>
+  <si>
     <t>e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.de-de.xlf</t>
   </si>
   <si>
@@ -119,12 +125,6 @@
   </si>
   <si>
     <t>2016-01-29 02:03:27</t>
-  </si>
-  <si>
-    <t>ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:02:43</t>
   </si>
 </sst>
 </file>
@@ -278,21 +278,21 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -308,10 +308,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId5"/>
     <hyperlink ref="A6" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
@@ -400,7 +400,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>22</v>
@@ -414,13 +414,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>22</v>
@@ -431,10 +431,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>27</v>
@@ -468,14 +468,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId8"/>
-    <hyperlink ref="C5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId4"/>
+    <hyperlink ref="C3" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId8"/>
+    <hyperlink ref="C5" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.zh-cn.xlf" r:id="rId9"/>
     <hyperlink ref="A6" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -564,7 +564,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>22</v>
@@ -578,13 +578,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>22</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>35</v>
@@ -632,14 +632,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId8"/>
-    <hyperlink ref="C5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId4"/>
+    <hyperlink ref="C3" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId8"/>
+    <hyperlink ref="C5" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="A6" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -103,7 +103,7 @@
     <t>1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-29 02:04:44</t>
+    <t>2016-01-29 02:05:27</t>
   </si>
   <si>
     <t>c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.zh-cn.xlf</t>
@@ -133,7 +133,7 @@
     <t>1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-29 02:04:57</t>
+    <t>2016-01-29 02:05:43</t>
   </si>
   <si>
     <t>c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>File Name</t>
   </si>
@@ -25,27 +25,27 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md</t>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
     <t>ca5f0528-f586-4664-8880-ed70a9764e1e.md</t>
   </si>
   <si>
-    <t>In Translation</t>
-  </si>
-  <si>
     <t>e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md</t>
   </si>
   <si>
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.md</t>
   </si>
   <si>
-    <t>1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md</t>
+    <t>c7e89640-77b8-4370-970f-bf0463e5644d.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>c7e89640-77b8-4370-970f-bf0463e5644d.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -79,6 +79,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:05:27</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:06:46</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf</t>
   </si>
   <si>
@@ -88,9 +100,6 @@
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf</t>
   </si>
   <si>
@@ -100,12 +109,6 @@
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf</t>
   </si>
   <si>
-    <t>1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:05:27</t>
-  </si>
-  <si>
     <t>c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.zh-cn.xlf</t>
   </si>
   <si>
@@ -115,6 +118,15 @@
     <t>Ignored</t>
   </si>
   <si>
+    <t>1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:05:43</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:07:14</t>
+  </si>
+  <si>
     <t>ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf</t>
   </si>
   <si>
@@ -128,12 +140,6 @@
   </si>
   <si>
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf</t>
-  </si>
-  <si>
-    <t>1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:05:43</t>
   </si>
   <si>
     <t>c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.de-de.xlf</t>
@@ -304,21 +310,21 @@
         <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -334,10 +340,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId5"/>
     <hyperlink ref="A6" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId6"/>
     <hyperlink ref="A7" display=".localization-config" r:id="rId7"/>
   </hyperlinks>
@@ -409,6 +415,12 @@
       <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>23</v>
       </c>
@@ -430,7 +442,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>24</v>
@@ -444,13 +456,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>24</v>
@@ -461,16 +473,16 @@
         <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>24</v>
@@ -478,19 +490,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>24</v>
@@ -504,28 +516,30 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId8"/>
-    <hyperlink ref="C5" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId10"/>
-    <hyperlink ref="C6" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display=".localization-config" r:id="rId12"/>
+    <hyperlink ref="A2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A4" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId8"/>
+    <hyperlink ref="C4" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId10"/>
+    <hyperlink ref="C5" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A6" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId12"/>
+    <hyperlink ref="C6" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A7" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -590,13 +604,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>24</v>
@@ -610,13 +630,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>24</v>
@@ -630,13 +650,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>24</v>
@@ -647,16 +667,16 @@
         <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>24</v>
@@ -664,19 +684,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>24</v>
@@ -690,28 +710,30 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId8"/>
-    <hyperlink ref="C5" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId10"/>
-    <hyperlink ref="C6" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display=".localization-config" r:id="rId12"/>
+    <hyperlink ref="A2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="A4" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId8"/>
+    <hyperlink ref="C4" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId10"/>
+    <hyperlink ref="C5" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A6" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId12"/>
+    <hyperlink ref="C6" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A7" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>File Name</t>
   </si>
@@ -40,12 +40,15 @@
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.md</t>
   </si>
   <si>
+    <t>b10081ed-378b-439d-87ec-f0df2a4cd958.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
     <t>c7e89640-77b8-4370-970f-bf0463e5644d.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -109,6 +112,12 @@
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf</t>
   </si>
   <si>
+    <t>b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:09:06</t>
+  </si>
+  <si>
     <t>c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.zh-cn.xlf</t>
   </si>
   <si>
@@ -140,6 +149,12 @@
   </si>
   <si>
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf</t>
+  </si>
+  <si>
+    <t>b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:09:23</t>
   </si>
   <si>
     <t>c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.de-de.xlf</t>
@@ -250,7 +265,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -332,10 +347,21 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>11</v>
+      <c r="B8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -344,8 +370,9 @@
     <hyperlink ref="A3" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId3"/>
     <hyperlink ref="A4" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId4"/>
     <hyperlink ref="A5" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId6"/>
-    <hyperlink ref="A7" display=".localization-config" r:id="rId7"/>
+    <hyperlink ref="A6" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId7"/>
+    <hyperlink ref="A8" display=".localization-config" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -356,7 +383,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -375,31 +402,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
@@ -410,22 +437,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -436,16 +463,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -456,16 +483,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -476,16 +503,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -496,16 +523,16 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -513,16 +540,36 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>33</v>
+      <c r="B8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -537,9 +584,11 @@
     <hyperlink ref="C4" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf" r:id="rId9"/>
     <hyperlink ref="A5" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId10"/>
     <hyperlink ref="C5" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId12"/>
-    <hyperlink ref="C6" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A7" display=".localization-config" r:id="rId14"/>
+    <hyperlink ref="A6" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId12"/>
+    <hyperlink ref="C6" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A7" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId14"/>
+    <hyperlink ref="C7" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A8" display=".localization-config" r:id="rId16"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -550,7 +599,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -569,31 +618,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
@@ -604,22 +653,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -630,16 +679,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -650,16 +699,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -670,16 +719,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -690,16 +739,16 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -707,16 +756,36 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>33</v>
+      <c r="B8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -731,9 +800,11 @@
     <hyperlink ref="C4" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="A5" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId10"/>
     <hyperlink ref="C5" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId12"/>
-    <hyperlink ref="C6" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A7" display=".localization-config" r:id="rId14"/>
+    <hyperlink ref="A6" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId12"/>
+    <hyperlink ref="C6" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A7" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId14"/>
+    <hyperlink ref="C7" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A8" display=".localization-config" r:id="rId16"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -31,6 +31,9 @@
     <t>In Translation</t>
   </si>
   <si>
+    <t>b10081ed-378b-439d-87ec-f0df2a4cd958.md</t>
+  </si>
+  <si>
     <t>ca5f0528-f586-4664-8880-ed70a9764e1e.md</t>
   </si>
   <si>
@@ -40,15 +43,12 @@
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.md</t>
   </si>
   <si>
-    <t>b10081ed-378b-439d-87ec-f0df2a4cd958.md</t>
+    <t>c7e89640-77b8-4370-970f-bf0463e5644d.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>c7e89640-77b8-4370-970f-bf0463e5644d.md</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -94,15 +94,21 @@
     <t>Include</t>
   </si>
   <si>
+    <t>b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:09:06</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
     <t>ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-01-29 02:02:30</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
     <t>e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf</t>
   </si>
   <si>
@@ -112,12 +118,6 @@
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf</t>
   </si>
   <si>
-    <t>b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:09:06</t>
-  </si>
-  <si>
     <t>c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.zh-cn.xlf</t>
   </si>
   <si>
@@ -136,6 +136,12 @@
     <t>2016-01-29 02:07:14</t>
   </si>
   <si>
+    <t>b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:09:23</t>
+  </si>
+  <si>
     <t>ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf</t>
   </si>
   <si>
@@ -149,12 +155,6 @@
   </si>
   <si>
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf</t>
-  </si>
-  <si>
-    <t>b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:09:23</t>
   </si>
   <si>
     <t>c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.de-de.xlf</t>
@@ -336,21 +336,21 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -367,10 +367,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId6"/>
+    <hyperlink ref="A3" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId6"/>
     <hyperlink ref="A7" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId7"/>
     <hyperlink ref="A8" display=".localization-config" r:id="rId8"/>
   </hyperlinks>
@@ -506,7 +506,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>28</v>
@@ -520,13 +520,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>28</v>
@@ -537,10 +537,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>34</v>
@@ -578,14 +578,14 @@
     <hyperlink ref="C2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId4"/>
     <hyperlink ref="F2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId10"/>
-    <hyperlink ref="C5" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId12"/>
-    <hyperlink ref="C6" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A3" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId8"/>
+    <hyperlink ref="C4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId10"/>
+    <hyperlink ref="C5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId12"/>
+    <hyperlink ref="C6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf" r:id="rId13"/>
     <hyperlink ref="A7" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId14"/>
     <hyperlink ref="C7" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.zh-cn.xlf" r:id="rId15"/>
     <hyperlink ref="A8" display=".localization-config" r:id="rId16"/>
@@ -722,7 +722,7 @@
         <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>28</v>
@@ -736,13 +736,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>28</v>
@@ -753,10 +753,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>47</v>
@@ -794,14 +794,14 @@
     <hyperlink ref="C2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId4"/>
     <hyperlink ref="F2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId10"/>
-    <hyperlink ref="C5" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId12"/>
-    <hyperlink ref="C6" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A3" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="A4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId8"/>
+    <hyperlink ref="C4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId10"/>
+    <hyperlink ref="C5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId12"/>
+    <hyperlink ref="C6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf" r:id="rId13"/>
     <hyperlink ref="A7" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId14"/>
     <hyperlink ref="C7" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.de-de.xlf" r:id="rId15"/>
     <hyperlink ref="A8" display=".localization-config" r:id="rId16"/>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -31,24 +31,24 @@
     <t>In Translation</t>
   </si>
   <si>
+    <t>ca5f0528-f586-4664-8880-ed70a9764e1e.md</t>
+  </si>
+  <si>
+    <t>e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md</t>
+  </si>
+  <si>
+    <t>fec7be35-ac65-4cdb-a386-f39ce0811702.md</t>
+  </si>
+  <si>
     <t>b10081ed-378b-439d-87ec-f0df2a4cd958.md</t>
   </si>
   <si>
-    <t>ca5f0528-f586-4664-8880-ed70a9764e1e.md</t>
-  </si>
-  <si>
-    <t>e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md</t>
-  </si>
-  <si>
-    <t>fec7be35-ac65-4cdb-a386-f39ce0811702.md</t>
+    <t>Ready for handoff</t>
   </si>
   <si>
     <t>c7e89640-77b8-4370-970f-bf0463e5644d.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -94,28 +94,28 @@
     <t>Include</t>
   </si>
   <si>
+    <t>ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:02:30</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:00:36</t>
+  </si>
+  <si>
+    <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-29 02:09:06</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:02:30</t>
-  </si>
-  <si>
-    <t>e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:00:36</t>
-  </si>
-  <si>
-    <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf</t>
+    <t>2016-01-29 02:11:45</t>
   </si>
   <si>
     <t>c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.zh-cn.xlf</t>
@@ -136,25 +136,25 @@
     <t>2016-01-29 02:07:14</t>
   </si>
   <si>
+    <t>ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:02:43</t>
+  </si>
+  <si>
+    <t>e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:01:08</t>
+  </si>
+  <si>
+    <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf</t>
+  </si>
+  <si>
     <t>b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-29 02:09:23</t>
-  </si>
-  <si>
-    <t>ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:02:43</t>
-  </si>
-  <si>
-    <t>e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:01:08</t>
-  </si>
-  <si>
-    <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf</t>
+    <t>2016-01-29 02:12:02</t>
   </si>
   <si>
     <t>c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.de-de.xlf</t>
@@ -336,21 +336,21 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -367,10 +367,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId6"/>
+    <hyperlink ref="A3" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId6"/>
     <hyperlink ref="A7" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId7"/>
     <hyperlink ref="A8" display=".localization-config" r:id="rId8"/>
   </hyperlinks>
@@ -506,7 +506,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>28</v>
@@ -520,13 +520,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>28</v>
@@ -537,10 +537,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>34</v>
@@ -578,14 +578,14 @@
     <hyperlink ref="C2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId4"/>
     <hyperlink ref="F2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId10"/>
-    <hyperlink ref="C5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId12"/>
-    <hyperlink ref="C6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A3" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A4" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId8"/>
+    <hyperlink ref="C4" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId10"/>
+    <hyperlink ref="C5" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A6" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId12"/>
+    <hyperlink ref="C6" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.zh-cn.xlf" r:id="rId13"/>
     <hyperlink ref="A7" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId14"/>
     <hyperlink ref="C7" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.zh-cn.xlf" r:id="rId15"/>
     <hyperlink ref="A8" display=".localization-config" r:id="rId16"/>
@@ -722,7 +722,7 @@
         <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>28</v>
@@ -736,13 +736,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>28</v>
@@ -753,10 +753,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>47</v>
@@ -794,14 +794,14 @@
     <hyperlink ref="C2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId4"/>
     <hyperlink ref="F2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId10"/>
-    <hyperlink ref="C5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId12"/>
-    <hyperlink ref="C6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A3" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="A4" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId8"/>
+    <hyperlink ref="C4" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId10"/>
+    <hyperlink ref="C5" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A6" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId12"/>
+    <hyperlink ref="C6" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.de-de.xlf" r:id="rId13"/>
     <hyperlink ref="A7" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId14"/>
     <hyperlink ref="C7" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.de-de.xlf" r:id="rId15"/>
     <hyperlink ref="A8" display=".localization-config" r:id="rId16"/>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -115,7 +115,7 @@
     <t>b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-29 02:11:45</t>
+    <t>2016-01-29 02:12:43</t>
   </si>
   <si>
     <t>c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.zh-cn.xlf</t>
@@ -154,7 +154,7 @@
     <t>b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-29 02:12:02</t>
+    <t>2016-01-29 02:12:56</t>
   </si>
   <si>
     <t>c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>File Name</t>
   </si>
@@ -40,12 +40,15 @@
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.md</t>
   </si>
   <si>
+    <t>377d8a90-ca35-45db-8e05-83f98d778f83.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
     <t>b10081ed-378b-439d-87ec-f0df2a4cd958.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>c7e89640-77b8-4370-970f-bf0463e5644d.md</t>
   </si>
   <si>
@@ -112,6 +115,12 @@
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf</t>
   </si>
   <si>
+    <t>377d8a90-ca35-45db-8e05-83f98d778f83.8d56196189c0312680048876b2926b969a870681.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:13:27</t>
+  </si>
+  <si>
     <t>b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.zh-cn.xlf</t>
   </si>
   <si>
@@ -149,6 +158,12 @@
   </si>
   <si>
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf</t>
+  </si>
+  <si>
+    <t>377d8a90-ca35-45db-8e05-83f98d778f83.8d56196189c0312680048876b2926b969a870681.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:13:39</t>
   </si>
   <si>
     <t>b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.de-de.xlf</t>
@@ -265,7 +280,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -358,10 +373,21 @@
         <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>12</v>
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -370,9 +396,10 @@
     <hyperlink ref="A3" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId3"/>
     <hyperlink ref="A4" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId4"/>
     <hyperlink ref="A5" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId7"/>
-    <hyperlink ref="A8" display=".localization-config" r:id="rId8"/>
+    <hyperlink ref="A6" display="377d8a90-ca35-45db-8e05-83f98d778f83.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId8"/>
+    <hyperlink ref="A9" display=".localization-config" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -383,7 +410,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,31 +429,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -437,22 +464,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -463,16 +490,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -483,16 +510,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -503,16 +530,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -523,16 +550,16 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -543,16 +570,16 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -560,16 +587,36 @@
         <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>36</v>
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -584,11 +631,13 @@
     <hyperlink ref="C4" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf" r:id="rId9"/>
     <hyperlink ref="A5" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId10"/>
     <hyperlink ref="C5" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId12"/>
-    <hyperlink ref="C6" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A7" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId14"/>
-    <hyperlink ref="C7" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A8" display=".localization-config" r:id="rId16"/>
+    <hyperlink ref="A6" display="377d8a90-ca35-45db-8e05-83f98d778f83.md" r:id="rId12"/>
+    <hyperlink ref="C6" display="377d8a90-ca35-45db-8e05-83f98d778f83.8d56196189c0312680048876b2926b969a870681.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A7" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId14"/>
+    <hyperlink ref="C7" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A8" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId16"/>
+    <hyperlink ref="C8" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A9" display=".localization-config" r:id="rId18"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -599,7 +648,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -618,31 +667,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -653,22 +702,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -679,16 +728,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -699,16 +748,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -719,16 +768,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -739,16 +788,16 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -759,16 +808,16 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -776,16 +825,36 @@
         <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>36</v>
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -800,11 +869,13 @@
     <hyperlink ref="C4" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="A5" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId10"/>
     <hyperlink ref="C5" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId12"/>
-    <hyperlink ref="C6" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A7" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId14"/>
-    <hyperlink ref="C7" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A8" display=".localization-config" r:id="rId16"/>
+    <hyperlink ref="A6" display="377d8a90-ca35-45db-8e05-83f98d778f83.md" r:id="rId12"/>
+    <hyperlink ref="C6" display="377d8a90-ca35-45db-8e05-83f98d778f83.8d56196189c0312680048876b2926b969a870681.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A7" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId14"/>
+    <hyperlink ref="C7" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A8" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId16"/>
+    <hyperlink ref="C8" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A9" display=".localization-config" r:id="rId18"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>File Name</t>
   </si>
@@ -25,6 +25,12 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>377d8a90-ca35-45db-8e05-83f98d778f83.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md</t>
   </si>
   <si>
@@ -40,15 +46,12 @@
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.md</t>
   </si>
   <si>
-    <t>377d8a90-ca35-45db-8e05-83f98d778f83.md</t>
+    <t>b10081ed-378b-439d-87ec-f0df2a4cd958.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>b10081ed-378b-439d-87ec-f0df2a4cd958.md</t>
-  </si>
-  <si>
     <t>c7e89640-77b8-4370-970f-bf0463e5644d.md</t>
   </si>
   <si>
@@ -85,6 +88,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>377d8a90-ca35-45db-8e05-83f98d778f83.8d56196189c0312680048876b2926b969a870681.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:13:27</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:14:11</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf</t>
   </si>
   <si>
@@ -94,9 +109,6 @@
     <t>2016-01-29 02:06:46</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf</t>
   </si>
   <si>
@@ -115,12 +127,6 @@
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf</t>
   </si>
   <si>
-    <t>377d8a90-ca35-45db-8e05-83f98d778f83.8d56196189c0312680048876b2926b969a870681.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:13:27</t>
-  </si>
-  <si>
     <t>b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.zh-cn.xlf</t>
   </si>
   <si>
@@ -136,6 +142,15 @@
     <t>Ignored</t>
   </si>
   <si>
+    <t>377d8a90-ca35-45db-8e05-83f98d778f83.8d56196189c0312680048876b2926b969a870681.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:13:39</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:14:31</t>
+  </si>
+  <si>
     <t>1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf</t>
   </si>
   <si>
@@ -158,12 +173,6 @@
   </si>
   <si>
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf</t>
-  </si>
-  <si>
-    <t>377d8a90-ca35-45db-8e05-83f98d778f83.8d56196189c0312680048876b2926b969a870681.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:13:39</t>
   </si>
   <si>
     <t>b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.de-de.xlf</t>
@@ -318,43 +327,43 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -362,41 +371,41 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C8" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="377d8a90-ca35-45db-8e05-83f98d778f83.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="377d8a90-ca35-45db-8e05-83f98d778f83.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId6"/>
     <hyperlink ref="A7" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId7"/>
     <hyperlink ref="A8" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId8"/>
     <hyperlink ref="A9" display=".localization-config" r:id="rId9"/>
@@ -429,31 +438,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -464,22 +473,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -487,79 +496,85 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -567,77 +582,79 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId10"/>
-    <hyperlink ref="C5" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="377d8a90-ca35-45db-8e05-83f98d778f83.md" r:id="rId12"/>
-    <hyperlink ref="C6" display="377d8a90-ca35-45db-8e05-83f98d778f83.8d56196189c0312680048876b2926b969a870681.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A7" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId14"/>
-    <hyperlink ref="C7" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A8" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId16"/>
-    <hyperlink ref="C8" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A9" display=".localization-config" r:id="rId18"/>
+    <hyperlink ref="A2" display="377d8a90-ca35-45db-8e05-83f98d778f83.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="377d8a90-ca35-45db-8e05-83f98d778f83.8d56196189c0312680048876b2926b969a870681.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="377d8a90-ca35-45db-8e05-83f98d778f83.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="377d8a90-ca35-45db-8e05-83f98d778f83.8d56196189c0312680048876b2926b969a870681.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A8" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId18"/>
+    <hyperlink ref="C8" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A9" display=".localization-config" r:id="rId20"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -667,31 +684,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -702,22 +719,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -725,79 +742,85 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -805,77 +828,79 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId10"/>
-    <hyperlink ref="C5" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="377d8a90-ca35-45db-8e05-83f98d778f83.md" r:id="rId12"/>
-    <hyperlink ref="C6" display="377d8a90-ca35-45db-8e05-83f98d778f83.8d56196189c0312680048876b2926b969a870681.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A7" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId14"/>
-    <hyperlink ref="C7" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A8" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId16"/>
-    <hyperlink ref="C8" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A9" display=".localization-config" r:id="rId18"/>
+    <hyperlink ref="A2" display="377d8a90-ca35-45db-8e05-83f98d778f83.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="377d8a90-ca35-45db-8e05-83f98d778f83.8d56196189c0312680048876b2926b969a870681.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="377d8a90-ca35-45db-8e05-83f98d778f83.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="377d8a90-ca35-45db-8e05-83f98d778f83.8d56196189c0312680048876b2926b969a870681.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A8" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId18"/>
+    <hyperlink ref="C8" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A9" display=".localization-config" r:id="rId20"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>File Name</t>
   </si>
@@ -46,12 +46,15 @@
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.md</t>
   </si>
   <si>
+    <t>5860fed6-83c1-4577-8548-15d0a1a18605.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
     <t>b10081ed-378b-439d-87ec-f0df2a4cd958.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>c7e89640-77b8-4370-970f-bf0463e5644d.md</t>
   </si>
   <si>
@@ -127,6 +130,12 @@
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf</t>
   </si>
   <si>
+    <t>5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:15:27</t>
+  </si>
+  <si>
     <t>b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.zh-cn.xlf</t>
   </si>
   <si>
@@ -173,6 +182,12 @@
   </si>
   <si>
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf</t>
+  </si>
+  <si>
+    <t>5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:15:40</t>
   </si>
   <si>
     <t>b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.de-de.xlf</t>
@@ -289,7 +304,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,10 +408,21 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>14</v>
+      <c r="B10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -406,9 +432,10 @@
     <hyperlink ref="A4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId4"/>
     <hyperlink ref="A5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId5"/>
     <hyperlink ref="A6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId8"/>
-    <hyperlink ref="A9" display=".localization-config" r:id="rId9"/>
+    <hyperlink ref="A7" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId9"/>
+    <hyperlink ref="A10" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -419,7 +446,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -438,31 +465,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -473,22 +500,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -499,22 +526,22 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -525,16 +552,16 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -545,16 +572,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -565,16 +592,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -585,16 +612,16 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -605,16 +632,16 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -622,16 +649,36 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>41</v>
+      <c r="B10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -650,11 +697,13 @@
     <hyperlink ref="C5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf" r:id="rId13"/>
     <hyperlink ref="A6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId14"/>
     <hyperlink ref="C6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId18"/>
-    <hyperlink ref="C8" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display=".localization-config" r:id="rId20"/>
+    <hyperlink ref="A7" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId18"/>
+    <hyperlink ref="C8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A9" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId20"/>
+    <hyperlink ref="C9" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A10" display=".localization-config" r:id="rId22"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -665,7 +714,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -684,31 +733,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -719,22 +768,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -745,22 +794,22 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -771,16 +820,16 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -791,16 +840,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -811,16 +860,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -831,16 +880,16 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -851,16 +900,16 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -868,16 +917,36 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>41</v>
+      <c r="B10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -896,11 +965,13 @@
     <hyperlink ref="C5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.de-de.xlf" r:id="rId13"/>
     <hyperlink ref="A6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId14"/>
     <hyperlink ref="C6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId18"/>
-    <hyperlink ref="C8" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display=".localization-config" r:id="rId20"/>
+    <hyperlink ref="A7" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId18"/>
+    <hyperlink ref="C8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A9" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId20"/>
+    <hyperlink ref="C9" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A10" display=".localization-config" r:id="rId22"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -37,6 +37,9 @@
     <t>In Translation</t>
   </si>
   <si>
+    <t>5860fed6-83c1-4577-8548-15d0a1a18605.md</t>
+  </si>
+  <si>
     <t>ca5f0528-f586-4664-8880-ed70a9764e1e.md</t>
   </si>
   <si>
@@ -46,15 +49,12 @@
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.md</t>
   </si>
   <si>
-    <t>5860fed6-83c1-4577-8548-15d0a1a18605.md</t>
+    <t>b10081ed-378b-439d-87ec-f0df2a4cd958.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>b10081ed-378b-439d-87ec-f0df2a4cd958.md</t>
-  </si>
-  <si>
     <t>c7e89640-77b8-4370-970f-bf0463e5644d.md</t>
   </si>
   <si>
@@ -112,15 +112,21 @@
     <t>2016-01-29 02:06:46</t>
   </si>
   <si>
+    <t>5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:15:27</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
     <t>ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-01-29 02:02:30</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
     <t>e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf</t>
   </si>
   <si>
@@ -130,12 +136,6 @@
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf</t>
   </si>
   <si>
-    <t>5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:15:27</t>
-  </si>
-  <si>
     <t>b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.zh-cn.xlf</t>
   </si>
   <si>
@@ -169,6 +169,12 @@
     <t>2016-01-29 02:07:14</t>
   </si>
   <si>
+    <t>5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:15:40</t>
+  </si>
+  <si>
     <t>ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf</t>
   </si>
   <si>
@@ -182,12 +188,6 @@
   </si>
   <si>
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf</t>
-  </si>
-  <si>
-    <t>5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:15:40</t>
   </si>
   <si>
     <t>b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.de-de.xlf</t>
@@ -386,21 +386,21 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -408,10 +408,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -429,10 +429,10 @@
   <hyperlinks>
     <hyperlink ref="A2" display="377d8a90-ca35-45db-8e05-83f98d778f83.md" r:id="rId2"/>
     <hyperlink ref="A3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId7"/>
     <hyperlink ref="A8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId8"/>
     <hyperlink ref="A9" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId9"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId10"/>
@@ -595,7 +595,7 @@
         <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>34</v>
@@ -609,13 +609,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>34</v>
@@ -626,10 +626,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>40</v>
@@ -649,7 +649,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>42</v>
@@ -691,14 +691,14 @@
     <hyperlink ref="C3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId8"/>
     <hyperlink ref="F3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId12"/>
-    <hyperlink ref="C5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A4" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf" r:id="rId17"/>
     <hyperlink ref="A8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId18"/>
     <hyperlink ref="C8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.zh-cn.xlf" r:id="rId19"/>
     <hyperlink ref="A9" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId20"/>
@@ -863,7 +863,7 @@
         <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>34</v>
@@ -877,13 +877,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>34</v>
@@ -894,10 +894,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>58</v>
@@ -917,7 +917,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>60</v>
@@ -959,14 +959,14 @@
     <hyperlink ref="C3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId8"/>
     <hyperlink ref="F3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId12"/>
-    <hyperlink ref="C5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A4" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf" r:id="rId17"/>
     <hyperlink ref="A8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId18"/>
     <hyperlink ref="C8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.de-de.xlf" r:id="rId19"/>
     <hyperlink ref="A9" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId20"/>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -37,24 +37,24 @@
     <t>In Translation</t>
   </si>
   <si>
+    <t>ca5f0528-f586-4664-8880-ed70a9764e1e.md</t>
+  </si>
+  <si>
+    <t>e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md</t>
+  </si>
+  <si>
+    <t>fec7be35-ac65-4cdb-a386-f39ce0811702.md</t>
+  </si>
+  <si>
     <t>5860fed6-83c1-4577-8548-15d0a1a18605.md</t>
   </si>
   <si>
-    <t>ca5f0528-f586-4664-8880-ed70a9764e1e.md</t>
-  </si>
-  <si>
-    <t>e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md</t>
-  </si>
-  <si>
-    <t>fec7be35-ac65-4cdb-a386-f39ce0811702.md</t>
+    <t>Ready for handoff</t>
   </si>
   <si>
     <t>b10081ed-378b-439d-87ec-f0df2a4cd958.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>c7e89640-77b8-4370-970f-bf0463e5644d.md</t>
   </si>
   <si>
@@ -112,28 +112,28 @@
     <t>2016-01-29 02:06:46</t>
   </si>
   <si>
+    <t>ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:02:30</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:00:36</t>
+  </si>
+  <si>
+    <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-29 02:15:27</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:02:30</t>
-  </si>
-  <si>
-    <t>e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:00:36</t>
-  </si>
-  <si>
-    <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf</t>
+    <t>2016-01-29 02:16:46</t>
   </si>
   <si>
     <t>b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.zh-cn.xlf</t>
@@ -169,25 +169,25 @@
     <t>2016-01-29 02:07:14</t>
   </si>
   <si>
+    <t>ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:02:43</t>
+  </si>
+  <si>
+    <t>e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:01:08</t>
+  </si>
+  <si>
+    <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf</t>
+  </si>
+  <si>
     <t>5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-29 02:15:40</t>
-  </si>
-  <si>
-    <t>ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:02:43</t>
-  </si>
-  <si>
-    <t>e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:01:08</t>
-  </si>
-  <si>
-    <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf</t>
+    <t>2016-01-29 02:16:58</t>
   </si>
   <si>
     <t>b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.de-de.xlf</t>
@@ -386,21 +386,21 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -408,10 +408,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -429,10 +429,10 @@
   <hyperlinks>
     <hyperlink ref="A2" display="377d8a90-ca35-45db-8e05-83f98d778f83.md" r:id="rId2"/>
     <hyperlink ref="A3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId7"/>
     <hyperlink ref="A8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId8"/>
     <hyperlink ref="A9" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId9"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId10"/>
@@ -595,7 +595,7 @@
         <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>34</v>
@@ -609,13 +609,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>34</v>
@@ -626,10 +626,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>40</v>
@@ -649,7 +649,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>42</v>
@@ -691,14 +691,14 @@
     <hyperlink ref="C3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId8"/>
     <hyperlink ref="F3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId12"/>
-    <hyperlink ref="C5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.zh-cn.xlf" r:id="rId17"/>
     <hyperlink ref="A8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId18"/>
     <hyperlink ref="C8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.zh-cn.xlf" r:id="rId19"/>
     <hyperlink ref="A9" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId20"/>
@@ -863,7 +863,7 @@
         <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>34</v>
@@ -877,13 +877,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>34</v>
@@ -894,10 +894,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>58</v>
@@ -917,7 +917,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>60</v>
@@ -959,14 +959,14 @@
     <hyperlink ref="C3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId8"/>
     <hyperlink ref="F3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId12"/>
-    <hyperlink ref="C5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.de-de.xlf" r:id="rId17"/>
     <hyperlink ref="A8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId18"/>
     <hyperlink ref="C8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.de-de.xlf" r:id="rId19"/>
     <hyperlink ref="A9" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId20"/>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>File Name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>5860fed6-83c1-4577-8548-15d0a1a18605.md</t>
+  </si>
+  <si>
     <t>1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md</t>
   </si>
   <si>
@@ -46,15 +49,12 @@
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.md</t>
   </si>
   <si>
-    <t>5860fed6-83c1-4577-8548-15d0a1a18605.md</t>
+    <t>b10081ed-378b-439d-87ec-f0df2a4cd958.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>b10081ed-378b-439d-87ec-f0df2a4cd958.md</t>
-  </si>
-  <si>
     <t>c7e89640-77b8-4370-970f-bf0463e5644d.md</t>
   </si>
   <si>
@@ -103,6 +103,15 @@
     <t>Include</t>
   </si>
   <si>
+    <t>5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:16:46</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:17:31</t>
+  </si>
+  <si>
     <t>1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf</t>
   </si>
   <si>
@@ -130,12 +139,6 @@
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf</t>
   </si>
   <si>
-    <t>5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:16:46</t>
-  </si>
-  <si>
     <t>b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.zh-cn.xlf</t>
   </si>
   <si>
@@ -160,6 +163,15 @@
     <t>2016-01-29 02:14:31</t>
   </si>
   <si>
+    <t>5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:16:58</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:17:54</t>
+  </si>
+  <si>
     <t>1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf</t>
   </si>
   <si>
@@ -182,12 +194,6 @@
   </si>
   <si>
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf</t>
-  </si>
-  <si>
-    <t>5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:16:58</t>
   </si>
   <si>
     <t>b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.de-de.xlf</t>
@@ -342,21 +348,21 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -364,10 +370,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -375,10 +381,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -386,21 +392,21 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -408,10 +414,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -428,11 +434,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="377d8a90-ca35-45db-8e05-83f98d778f83.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId7"/>
+    <hyperlink ref="A3" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId7"/>
     <hyperlink ref="A8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId8"/>
     <hyperlink ref="A9" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId9"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId10"/>
@@ -523,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
@@ -546,16 +552,22 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>34</v>
@@ -569,7 +581,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>35</v>
@@ -578,7 +590,7 @@
         <v>36</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>28</v>
@@ -589,16 +601,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>28</v>
@@ -609,16 +621,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>28</v>
@@ -626,19 +638,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>28</v>
@@ -649,16 +661,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>28</v>
@@ -672,13 +684,13 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -687,23 +699,25 @@
     <hyperlink ref="C2" display="377d8a90-ca35-45db-8e05-83f98d778f83.8d56196189c0312680048876b2926b969a870681.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="377d8a90-ca35-45db-8e05-83f98d778f83.md" r:id="rId4"/>
     <hyperlink ref="F2" display="377d8a90-ca35-45db-8e05-83f98d778f83.8d56196189c0312680048876b2926b969a870681.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId12"/>
-    <hyperlink ref="C5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId18"/>
-    <hyperlink ref="C8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId20"/>
-    <hyperlink ref="C9" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A10" display=".localization-config" r:id="rId22"/>
+    <hyperlink ref="A3" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId14"/>
+    <hyperlink ref="C5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A6" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId16"/>
+    <hyperlink ref="C6" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A7" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId18"/>
+    <hyperlink ref="C7" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId20"/>
+    <hyperlink ref="C8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A9" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId22"/>
+    <hyperlink ref="C9" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A10" display=".localization-config" r:id="rId24"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -768,19 +782,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>28</v>
@@ -791,22 +805,22 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>28</v>
@@ -814,19 +828,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>28</v>
@@ -837,16 +857,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>28</v>
@@ -857,16 +877,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>28</v>
@@ -877,16 +897,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>28</v>
@@ -894,19 +914,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>28</v>
@@ -917,16 +937,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>28</v>
@@ -940,13 +960,13 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -955,23 +975,25 @@
     <hyperlink ref="C2" display="377d8a90-ca35-45db-8e05-83f98d778f83.8d56196189c0312680048876b2926b969a870681.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="377d8a90-ca35-45db-8e05-83f98d778f83.md" r:id="rId4"/>
     <hyperlink ref="F2" display="377d8a90-ca35-45db-8e05-83f98d778f83.8d56196189c0312680048876b2926b969a870681.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId12"/>
-    <hyperlink ref="C5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId18"/>
-    <hyperlink ref="C8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId20"/>
-    <hyperlink ref="C9" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.de-de.xlf" r:id="rId21"/>
-    <hyperlink ref="A10" display=".localization-config" r:id="rId22"/>
+    <hyperlink ref="A3" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId14"/>
+    <hyperlink ref="C5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A6" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId16"/>
+    <hyperlink ref="C6" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A7" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId18"/>
+    <hyperlink ref="C7" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId20"/>
+    <hyperlink ref="C8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A9" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId22"/>
+    <hyperlink ref="C9" display="c7e89640-77b8-4370-970f-bf0463e5644d.2d3410e2e990df487a9d6bca381a555c8aba43cd.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="A10" display=".localization-config" r:id="rId24"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -31,30 +31,30 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md</t>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>ca5f0528-f586-4664-8880-ed70a9764e1e.md</t>
+  </si>
+  <si>
+    <t>e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md</t>
+  </si>
+  <si>
+    <t>fec7be35-ac65-4cdb-a386-f39ce0811702.md</t>
+  </si>
+  <si>
     <t>5860fed6-83c1-4577-8548-15d0a1a18605.md</t>
   </si>
   <si>
-    <t>1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md</t>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>ca5f0528-f586-4664-8880-ed70a9764e1e.md</t>
-  </si>
-  <si>
-    <t>e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md</t>
-  </si>
-  <si>
-    <t>fec7be35-ac65-4cdb-a386-f39ce0811702.md</t>
+    <t>Ready for handoff</t>
   </si>
   <si>
     <t>b10081ed-378b-439d-87ec-f0df2a4cd958.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>c7e89640-77b8-4370-970f-bf0463e5644d.md</t>
   </si>
   <si>
@@ -103,42 +103,42 @@
     <t>Include</t>
   </si>
   <si>
+    <t>1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:05:27</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:06:46</t>
+  </si>
+  <si>
+    <t>ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:02:30</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:00:36</t>
+  </si>
+  <si>
+    <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-29 02:16:46</t>
+    <t>2016-01-29 02:18:29</t>
   </si>
   <si>
     <t>2016-01-29 02:17:31</t>
   </si>
   <si>
-    <t>1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:05:27</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:06:46</t>
-  </si>
-  <si>
-    <t>ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:02:30</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:00:36</t>
-  </si>
-  <si>
-    <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.zh-cn.xlf</t>
   </si>
   <si>
@@ -163,37 +163,37 @@
     <t>2016-01-29 02:14:31</t>
   </si>
   <si>
+    <t>1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:05:43</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:07:14</t>
+  </si>
+  <si>
+    <t>ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:02:43</t>
+  </si>
+  <si>
+    <t>e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:01:08</t>
+  </si>
+  <si>
+    <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf</t>
+  </si>
+  <si>
     <t>5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-29 02:16:58</t>
+    <t>2016-01-29 02:18:42</t>
   </si>
   <si>
     <t>2016-01-29 02:17:54</t>
-  </si>
-  <si>
-    <t>1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:05:43</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:07:14</t>
-  </si>
-  <si>
-    <t>ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:02:43</t>
-  </si>
-  <si>
-    <t>e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:01:08</t>
-  </si>
-  <si>
-    <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf</t>
   </si>
   <si>
     <t>b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.de-de.xlf</t>
@@ -348,21 +348,21 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -370,10 +370,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -381,10 +381,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -392,21 +392,21 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -414,10 +414,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -434,11 +434,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="377d8a90-ca35-45db-8e05-83f98d778f83.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId7"/>
+    <hyperlink ref="A3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId7"/>
     <hyperlink ref="A8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId8"/>
     <hyperlink ref="A9" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId9"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId10"/>
@@ -529,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
@@ -552,22 +552,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>34</v>
@@ -581,7 +575,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>35</v>
@@ -590,7 +584,7 @@
         <v>36</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>28</v>
@@ -601,16 +595,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>28</v>
@@ -621,16 +615,22 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G7" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>28</v>
@@ -638,10 +638,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>41</v>
@@ -650,7 +650,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>28</v>
@@ -661,7 +661,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>43</v>
@@ -670,7 +670,7 @@
         <v>44</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>28</v>
@@ -684,10 +684,10 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>45</v>
@@ -699,20 +699,20 @@
     <hyperlink ref="C2" display="377d8a90-ca35-45db-8e05-83f98d778f83.8d56196189c0312680048876b2926b969a870681.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="377d8a90-ca35-45db-8e05-83f98d778f83.md" r:id="rId4"/>
     <hyperlink ref="F2" display="377d8a90-ca35-45db-8e05-83f98d778f83.8d56196189c0312680048876b2926b969a870681.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId14"/>
-    <hyperlink ref="C5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A6" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId16"/>
-    <hyperlink ref="C6" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A7" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId18"/>
-    <hyperlink ref="C7" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="E7" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId18"/>
+    <hyperlink ref="F7" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.zh-cn.xlf" r:id="rId19"/>
     <hyperlink ref="A8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId20"/>
     <hyperlink ref="C8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.zh-cn.xlf" r:id="rId21"/>
     <hyperlink ref="A9" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId22"/>
@@ -805,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>49</v>
@@ -828,10 +828,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>52</v>
@@ -839,14 +839,8 @@
       <c r="D4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>28</v>
@@ -857,16 +851,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>28</v>
@@ -877,16 +871,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>28</v>
@@ -897,16 +891,22 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="G7" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>28</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>60</v>
@@ -926,7 +926,7 @@
         <v>61</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>28</v>
@@ -937,7 +937,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>62</v>
@@ -946,7 +946,7 @@
         <v>63</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>28</v>
@@ -960,10 +960,10 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>45</v>
@@ -975,20 +975,20 @@
     <hyperlink ref="C2" display="377d8a90-ca35-45db-8e05-83f98d778f83.8d56196189c0312680048876b2926b969a870681.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="377d8a90-ca35-45db-8e05-83f98d778f83.md" r:id="rId4"/>
     <hyperlink ref="F2" display="377d8a90-ca35-45db-8e05-83f98d778f83.8d56196189c0312680048876b2926b969a870681.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId14"/>
-    <hyperlink ref="C5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A6" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId16"/>
-    <hyperlink ref="C6" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A7" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId18"/>
-    <hyperlink ref="C7" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId16"/>
+    <hyperlink ref="C7" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="E7" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId18"/>
+    <hyperlink ref="F7" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.de-de.xlf" r:id="rId19"/>
     <hyperlink ref="A8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId20"/>
     <hyperlink ref="C8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.de-de.xlf" r:id="rId21"/>
     <hyperlink ref="A9" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId22"/>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -31,6 +31,9 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>5860fed6-83c1-4577-8548-15d0a1a18605.md</t>
+  </si>
+  <si>
     <t>1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md</t>
   </si>
   <si>
@@ -46,15 +49,12 @@
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.md</t>
   </si>
   <si>
-    <t>5860fed6-83c1-4577-8548-15d0a1a18605.md</t>
+    <t>b10081ed-378b-439d-87ec-f0df2a4cd958.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>b10081ed-378b-439d-87ec-f0df2a4cd958.md</t>
-  </si>
-  <si>
     <t>c7e89640-77b8-4370-970f-bf0463e5644d.md</t>
   </si>
   <si>
@@ -103,6 +103,15 @@
     <t>Include</t>
   </si>
   <si>
+    <t>5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:18:29</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:19:19</t>
+  </si>
+  <si>
     <t>1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf</t>
   </si>
   <si>
@@ -130,15 +139,6 @@
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf</t>
   </si>
   <si>
-    <t>5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:18:29</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:17:31</t>
-  </si>
-  <si>
     <t>b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.zh-cn.xlf</t>
   </si>
   <si>
@@ -163,6 +163,15 @@
     <t>2016-01-29 02:14:31</t>
   </si>
   <si>
+    <t>5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:18:42</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:19:39</t>
+  </si>
+  <si>
     <t>1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf</t>
   </si>
   <si>
@@ -185,15 +194,6 @@
   </si>
   <si>
     <t>fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf</t>
-  </si>
-  <si>
-    <t>5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:18:42</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:17:54</t>
   </si>
   <si>
     <t>b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.de-de.xlf</t>
@@ -348,21 +348,21 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -370,10 +370,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -381,10 +381,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -392,21 +392,21 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -414,10 +414,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -434,11 +434,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="377d8a90-ca35-45db-8e05-83f98d778f83.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId7"/>
+    <hyperlink ref="A3" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId7"/>
     <hyperlink ref="A8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId8"/>
     <hyperlink ref="A9" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId9"/>
     <hyperlink ref="A10" display=".localization-config" r:id="rId10"/>
@@ -529,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
@@ -552,16 +552,22 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>34</v>
@@ -575,7 +581,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>35</v>
@@ -584,7 +590,7 @@
         <v>36</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>28</v>
@@ -595,16 +601,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>28</v>
@@ -615,22 +621,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>28</v>
@@ -638,10 +638,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>41</v>
@@ -650,7 +650,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>28</v>
@@ -661,7 +661,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>43</v>
@@ -670,7 +670,7 @@
         <v>44</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>28</v>
@@ -684,10 +684,10 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>45</v>
@@ -699,20 +699,20 @@
     <hyperlink ref="C2" display="377d8a90-ca35-45db-8e05-83f98d778f83.8d56196189c0312680048876b2926b969a870681.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="377d8a90-ca35-45db-8e05-83f98d778f83.md" r:id="rId4"/>
     <hyperlink ref="F2" display="377d8a90-ca35-45db-8e05-83f98d778f83.8d56196189c0312680048876b2926b969a870681.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId12"/>
-    <hyperlink ref="C5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="E7" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId18"/>
-    <hyperlink ref="F7" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A3" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId14"/>
+    <hyperlink ref="C5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A6" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId16"/>
+    <hyperlink ref="C6" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A7" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId18"/>
+    <hyperlink ref="C7" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.zh-cn.xlf" r:id="rId19"/>
     <hyperlink ref="A8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId20"/>
     <hyperlink ref="C8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.zh-cn.xlf" r:id="rId21"/>
     <hyperlink ref="A9" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId22"/>
@@ -805,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>49</v>
@@ -828,10 +828,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>52</v>
@@ -839,8 +839,14 @@
       <c r="D4" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="G4" s="0" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>28</v>
@@ -851,16 +857,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>28</v>
@@ -871,16 +877,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>28</v>
@@ -891,22 +897,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>28</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>60</v>
@@ -926,7 +926,7 @@
         <v>61</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>28</v>
@@ -937,7 +937,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>62</v>
@@ -946,7 +946,7 @@
         <v>63</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>28</v>
@@ -960,10 +960,10 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>45</v>
@@ -975,20 +975,20 @@
     <hyperlink ref="C2" display="377d8a90-ca35-45db-8e05-83f98d778f83.8d56196189c0312680048876b2926b969a870681.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="377d8a90-ca35-45db-8e05-83f98d778f83.md" r:id="rId4"/>
     <hyperlink ref="F2" display="377d8a90-ca35-45db-8e05-83f98d778f83.8d56196189c0312680048876b2926b969a870681.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId12"/>
-    <hyperlink ref="C5" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="E7" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId18"/>
-    <hyperlink ref="F7" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A3" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="5860fed6-83c1-4577-8548-15d0a1a18605.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="5860fed6-83c1-4577-8548-15d0a1a18605.8b5cb5659fbdf2ac7a67e61453a50489bd9a3081.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="1c296d45-5d47-4ea2-833a-6ce140ff6c3c.62f8b0e370056b5c60b509cc8f232cf323acc349.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.md" r:id="rId14"/>
+    <hyperlink ref="C5" display="ca5f0528-f586-4664-8880-ed70a9764e1e.cf77e21e6246bcfe3044ed698610592054749e98.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A6" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.md" r:id="rId16"/>
+    <hyperlink ref="C6" display="e19f98b5-3b95-4a47-b2a6-bcb720d6a288.ae8ff1cee695a8d272df219c042107f50ffacfcc.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A7" display="fec7be35-ac65-4cdb-a386-f39ce0811702.md" r:id="rId18"/>
+    <hyperlink ref="C7" display="fec7be35-ac65-4cdb-a386-f39ce0811702.ce66bbc31b15f0e92f3836d660bf71bfbd19b0ae.de-de.xlf" r:id="rId19"/>
     <hyperlink ref="A8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.md" r:id="rId20"/>
     <hyperlink ref="C8" display="b10081ed-378b-439d-87ec-f0df2a4cd958.47017fa415b99faa36d73e4359406cae44492fa5.de-de.xlf" r:id="rId21"/>
     <hyperlink ref="A9" display="c7e89640-77b8-4370-970f-bf0463e5644d.md" r:id="rId22"/>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>a.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>b.md</t>
@@ -73,12 +73,15 @@
     <t>2016-01-29 02:20:59</t>
   </si>
   <si>
+    <t>2016-01-29 02:21:42</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>2016-01-29 02:21:11</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:22:01</t>
   </si>
 </sst>
 </file>
@@ -319,6 +325,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -339,6 +351,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -354,22 +372,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a.md" r:id="rId2"/>
     <hyperlink ref="C2" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="a.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="b.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="a.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -434,13 +456,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -454,13 +482,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -474,22 +508,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a.md" r:id="rId2"/>
     <hyperlink ref="C2" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="a.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="b.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="a.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>File Name</t>
   </si>
@@ -34,6 +34,9 @@
     <t>b.md</t>
   </si>
   <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -79,6 +82,12 @@
     <t>Include</t>
   </si>
   <si>
+    <t>b.63290e5768f688058c7b37413b0a5c26c308f864.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:22:39</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -92,6 +101,12 @@
   </si>
   <si>
     <t>2016-01-29 02:22:01</t>
+  </si>
+  <si>
+    <t>b.63290e5768f688058c7b37413b0a5c26c308f864.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:22:50</t>
   </si>
 </sst>
 </file>
@@ -234,21 +249,21 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -285,31 +300,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -320,22 +335,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -343,42 +358,42 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -388,7 +403,7 @@
     <hyperlink ref="E2" display="a.md" r:id="rId4"/>
     <hyperlink ref="F2" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.zh-cn.xlf" r:id="rId5"/>
     <hyperlink ref="A3" display="b.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="C3" display="b.63290e5768f688058c7b37413b0a5c26c308f864.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="a.md" r:id="rId8"/>
     <hyperlink ref="F3" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.zh-cn.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
@@ -421,31 +436,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -456,22 +471,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -479,42 +494,42 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -524,7 +539,7 @@
     <hyperlink ref="E2" display="a.md" r:id="rId4"/>
     <hyperlink ref="F2" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf" r:id="rId5"/>
     <hyperlink ref="A3" display="b.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="C3" display="b.63290e5768f688058c7b37413b0a5c26c308f864.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="a.md" r:id="rId8"/>
     <hyperlink ref="F3" display="a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -28,7 +28,7 @@
     <t>293fed2a-c7c8-4053-a113-e943334f7293.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>84d8f86b-6d96-4774-8943-d34f44e81218.md</t>
@@ -73,15 +73,18 @@
     <t>2016-01-29 02:25:54</t>
   </si>
   <si>
+    <t>2016-01-29 02:26:50</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>2016-01-29 02:26:06</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:27:09</t>
   </si>
   <si>
     <t>84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.de-de.xlf</t>
@@ -325,6 +331,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
@@ -345,6 +357,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
@@ -360,22 +378,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="293fed2a-c7c8-4053-a113-e943334f7293.md" r:id="rId2"/>
     <hyperlink ref="C2" display="293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="84d8f86b-6d96-4774-8943-d34f44e81218.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="293fed2a-c7c8-4053-a113-e943334f7293.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="84d8f86b-6d96-4774-8943-d34f44e81218.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="84d8f86b-6d96-4774-8943-d34f44e81218.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -440,13 +462,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>20</v>
@@ -460,13 +488,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>20</v>
@@ -480,22 +514,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="293fed2a-c7c8-4053-a113-e943334f7293.md" r:id="rId2"/>
     <hyperlink ref="C2" display="293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="84d8f86b-6d96-4774-8943-d34f44e81218.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId6"/>
+    <hyperlink ref="E2" display="293fed2a-c7c8-4053-a113-e943334f7293.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="84d8f86b-6d96-4774-8943-d34f44e81218.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="84d8f86b-6d96-4774-8943-d34f44e81218.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>File Name</t>
   </si>
@@ -25,13 +25,16 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>84d8f86b-6d96-4774-8943-d34f44e81218.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>293fed2a-c7c8-4053-a113-e943334f7293.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>84d8f86b-6d96-4774-8943-d34f44e81218.md</t>
+    <t>Ready for handoff</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -67,19 +70,22 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:25:54</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:26:50</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-29 02:25:54</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:26:50</t>
-  </si>
-  <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.zh-cn.xlf</t>
+    <t>2016-01-29 02:27:54</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -88,16 +94,19 @@
     <t>Ignored</t>
   </si>
   <si>
+    <t>84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:26:06</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:27:09</t>
+  </si>
+  <si>
     <t>293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-29 02:26:06</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:27:09</t>
-  </si>
-  <si>
-    <t>84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.de-de.xlf</t>
+    <t>2016-01-29 02:28:06</t>
   </si>
 </sst>
 </file>
@@ -240,27 +249,27 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="293fed2a-c7c8-4053-a113-e943334f7293.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="84d8f86b-6d96-4774-8943-d34f44e81218.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="84d8f86b-6d96-4774-8943-d34f44e81218.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="293fed2a-c7c8-4053-a113-e943334f7293.md" r:id="rId3"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
@@ -291,31 +300,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -326,22 +335,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -349,54 +358,54 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="293fed2a-c7c8-4053-a113-e943334f7293.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="293fed2a-c7c8-4053-a113-e943334f7293.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="84d8f86b-6d96-4774-8943-d34f44e81218.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="84d8f86b-6d96-4774-8943-d34f44e81218.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="84d8f86b-6d96-4774-8943-d34f44e81218.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="84d8f86b-6d96-4774-8943-d34f44e81218.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="293fed2a-c7c8-4053-a113-e943334f7293.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="293fed2a-c7c8-4053-a113-e943334f7293.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.zh-cn.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -427,31 +436,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -462,22 +471,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -485,54 +494,54 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="293fed2a-c7c8-4053-a113-e943334f7293.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="293fed2a-c7c8-4053-a113-e943334f7293.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="84d8f86b-6d96-4774-8943-d34f44e81218.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="84d8f86b-6d96-4774-8943-d34f44e81218.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="84d8f86b-6d96-4774-8943-d34f44e81218.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="84d8f86b-6d96-4774-8943-d34f44e81218.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="293fed2a-c7c8-4053-a113-e943334f7293.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="293fed2a-c7c8-4053-a113-e943334f7293.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>File Name</t>
   </si>
@@ -25,18 +25,15 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>293fed2a-c7c8-4053-a113-e943334f7293.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>84d8f86b-6d96-4774-8943-d34f44e81218.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>293fed2a-c7c8-4053-a113-e943334f7293.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -70,6 +67,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:27:54</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:28:40</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.zh-cn.xlf</t>
   </si>
   <si>
@@ -79,21 +88,21 @@
     <t>2016-01-29 02:26:50</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:27:54</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Ignored</t>
   </si>
   <si>
+    <t>293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:28:06</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:29:00</t>
+  </si>
+  <si>
     <t>84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.de-de.xlf</t>
   </si>
   <si>
@@ -101,12 +110,6 @@
   </si>
   <si>
     <t>2016-01-29 02:27:09</t>
-  </si>
-  <si>
-    <t>293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:28:06</t>
   </si>
 </sst>
 </file>
@@ -249,27 +252,27 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="84d8f86b-6d96-4774-8943-d34f44e81218.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="293fed2a-c7c8-4053-a113-e943334f7293.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="293fed2a-c7c8-4053-a113-e943334f7293.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="84d8f86b-6d96-4774-8943-d34f44e81218.md" r:id="rId3"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
@@ -300,31 +303,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -335,22 +338,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -358,33 +361,33 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -398,14 +401,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="84d8f86b-6d96-4774-8943-d34f44e81218.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="84d8f86b-6d96-4774-8943-d34f44e81218.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="293fed2a-c7c8-4053-a113-e943334f7293.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="293fed2a-c7c8-4053-a113-e943334f7293.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="293fed2a-c7c8-4053-a113-e943334f7293.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="293fed2a-c7c8-4053-a113-e943334f7293.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="84d8f86b-6d96-4774-8943-d34f44e81218.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="84d8f86b-6d96-4774-8943-d34f44e81218.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.zh-cn.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -436,31 +439,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -486,7 +489,7 @@
         <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -494,7 +497,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
@@ -509,18 +512,18 @@
         <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -534,14 +537,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="84d8f86b-6d96-4774-8943-d34f44e81218.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="84d8f86b-6d96-4774-8943-d34f44e81218.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="293fed2a-c7c8-4053-a113-e943334f7293.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="293fed2a-c7c8-4053-a113-e943334f7293.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A2" display="293fed2a-c7c8-4053-a113-e943334f7293.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="293fed2a-c7c8-4053-a113-e943334f7293.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="84d8f86b-6d96-4774-8943-d34f44e81218.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="84d8f86b-6d96-4774-8943-d34f44e81218.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -28,10 +28,7 @@
     <t>293fed2a-c7c8-4053-a113-e943334f7293.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>84d8f86b-6d96-4774-8943-d34f44e81218.md</t>
+    <t>Ready for handoff</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,7 +67,7 @@
     <t>293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-29 02:27:54</t>
+    <t>2016-01-29 02:29:40</t>
   </si>
   <si>
     <t>2016-01-29 02:28:40</t>
@@ -79,15 +76,6 @@
     <t>Include</t>
   </si>
   <si>
-    <t>84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:25:54</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:26:50</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -97,19 +85,10 @@
     <t>293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-29 02:28:06</t>
+    <t>2016-01-29 02:29:51</t>
   </si>
   <si>
     <t>2016-01-29 02:29:00</t>
-  </si>
-  <si>
-    <t>84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:26:06</t>
-  </si>
-  <si>
-    <t>2016-01-29 02:27:09</t>
   </si>
 </sst>
 </file>
@@ -214,7 +193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -252,28 +231,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="293fed2a-c7c8-4053-a113-e943334f7293.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="84d8f86b-6d96-4774-8943-d34f44e81218.md" r:id="rId3"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId4"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -284,7 +251,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -303,31 +270,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -338,22 +305,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -361,42 +328,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -405,11 +346,7 @@
     <hyperlink ref="C2" display="293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="293fed2a-c7c8-4053-a113-e943334f7293.md" r:id="rId4"/>
     <hyperlink ref="F2" display="293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="84d8f86b-6d96-4774-8943-d34f44e81218.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="84d8f86b-6d96-4774-8943-d34f44e81218.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -420,7 +357,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -439,31 +376,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -474,22 +411,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -497,42 +434,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -541,11 +452,7 @@
     <hyperlink ref="C2" display="293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="293fed2a-c7c8-4053-a113-e943334f7293.md" r:id="rId4"/>
     <hyperlink ref="F2" display="293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="84d8f86b-6d96-4774-8943-d34f44e81218.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="84d8f86b-6d96-4774-8943-d34f44e81218.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="84d8f86b-6d96-4774-8943-d34f44e81218.f561a96a07aa31155d45b1876c628f29261e498d.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="A3" display=".localization-config" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -28,7 +28,7 @@
     <t>293fed2a-c7c8-4053-a113-e943334f7293.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -70,7 +70,7 @@
     <t>2016-01-29 02:29:40</t>
   </si>
   <si>
-    <t>2016-01-29 02:28:40</t>
+    <t>2016-01-29 02:30:26</t>
   </si>
   <si>
     <t>Include</t>
@@ -88,7 +88,7 @@
     <t>2016-01-29 02:29:51</t>
   </si>
   <si>
-    <t>2016-01-29 02:29:00</t>
+    <t>2016-01-29 02:30:45</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/tianzh/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>File Name</t>
   </si>
@@ -34,9 +34,6 @@
     <t>38222f7e-5091-415f-af85-f72e2e08270e.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>bf9a8cfe-181b-4734-b5d9-426fbaf76a41.md</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
     <t>2016-01-29 02:31:37</t>
   </si>
   <si>
+    <t>2016-01-29 02:32:22</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>2016-01-29 02:31:49</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:32:41</t>
   </si>
 </sst>
 </file>
@@ -252,32 +255,32 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -315,31 +318,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -350,22 +353,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -373,47 +376,59 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="H3" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>25</v>
@@ -433,9 +448,13 @@
     <hyperlink ref="F2" display="293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.zh-cn.xlf" r:id="rId5"/>
     <hyperlink ref="A3" display="38222f7e-5091-415f-af85-f72e2e08270e.md" r:id="rId6"/>
     <hyperlink ref="C3" display="38222f7e-5091-415f-af85-f72e2e08270e.a21582f05efb00c6c84aa42a4a36c6169c86c91a.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="bf9a8cfe-181b-4734-b5d9-426fbaf76a41.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="38222f7e-5091-415f-af85-f72e2e08270e.a21582f05efb00c6c84aa42a4a36c6169c86c91a.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="E3" display="38222f7e-5091-415f-af85-f72e2e08270e.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="38222f7e-5091-415f-af85-f72e2e08270e.a21582f05efb00c6c84aa42a4a36c6169c86c91a.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="bf9a8cfe-181b-4734-b5d9-426fbaf76a41.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="38222f7e-5091-415f-af85-f72e2e08270e.a21582f05efb00c6c84aa42a4a36c6169c86c91a.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="38222f7e-5091-415f-af85-f72e2e08270e.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="38222f7e-5091-415f-af85-f72e2e08270e.a21582f05efb00c6c84aa42a4a36c6169c86c91a.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -465,31 +484,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -515,7 +534,7 @@
         <v>29</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -523,7 +542,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>30</v>
@@ -531,19 +550,25 @@
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G3" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>30</v>
@@ -551,19 +576,25 @@
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G4" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>25</v>
@@ -583,9 +614,13 @@
     <hyperlink ref="F2" display="293fed2a-c7c8-4053-a113-e943334f7293.f9b05b7431cd02d4e07cccae20fc38a37dce4601.de-de.xlf" r:id="rId5"/>
     <hyperlink ref="A3" display="38222f7e-5091-415f-af85-f72e2e08270e.md" r:id="rId6"/>
     <hyperlink ref="C3" display="38222f7e-5091-415f-af85-f72e2e08270e.a21582f05efb00c6c84aa42a4a36c6169c86c91a.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="bf9a8cfe-181b-4734-b5d9-426fbaf76a41.md" r:id="rId8"/>
-    <hyperlink ref="C4" display="38222f7e-5091-415f-af85-f72e2e08270e.a21582f05efb00c6c84aa42a4a36c6169c86c91a.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display=".localization-config" r:id="rId10"/>
+    <hyperlink ref="E3" display="38222f7e-5091-415f-af85-f72e2e08270e.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="38222f7e-5091-415f-af85-f72e2e08270e.a21582f05efb00c6c84aa42a4a36c6169c86c91a.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="bf9a8cfe-181b-4734-b5d9-426fbaf76a41.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="38222f7e-5091-415f-af85-f72e2e08270e.a21582f05efb00c6c84aa42a4a36c6169c86c91a.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="38222f7e-5091-415f-af85-f72e2e08270e.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="38222f7e-5091-415f-af85-f72e2e08270e.a21582f05efb00c6c84aa42a4a36c6169c86c91a.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
